--- a/заказы/статистика филиалы/2023/10,23/06,10,23 ЗПФ/дв 06,10,23 мррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/06,10,23 ЗПФ/дв 06,10,23 мррсч зпф.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\06,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2DB16D-06FF-4B5C-881B-B9912E60C88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D11654-6112-4092-8FC7-992B64325490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>Период: 22.09.2023 - 29.09.2023</v>
+            <v>Период: 29.09.2023 - 06.10.2023</v>
           </cell>
         </row>
         <row r="3">
@@ -534,52 +534,7 @@
             <v>Номенклатура</v>
           </cell>
           <cell r="B3" t="str">
-            <v>Ед. изм.</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Количество</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>крат</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>заяв</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>раз</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>заказ</v>
-          </cell>
-          <cell r="K3" t="str">
-            <v>заказ</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>ср</v>
-          </cell>
-          <cell r="M3" t="str">
-            <v>заказ</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v>кон ост</v>
-          </cell>
-          <cell r="O3" t="str">
-            <v>ост без заказа</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>ср 06,09</v>
-          </cell>
-          <cell r="Q3" t="str">
-            <v>ср 14,09</v>
-          </cell>
-          <cell r="R3" t="str">
-            <v>ср 22,09</v>
-          </cell>
-          <cell r="S3" t="str">
-            <v>коментарий</v>
-          </cell>
-          <cell r="T3" t="str">
-            <v>вес</v>
+            <v>АКЦИИ</v>
           </cell>
         </row>
         <row r="4">
@@ -587,60 +542,7 @@
             <v>Номенклатура</v>
           </cell>
           <cell r="B4" t="str">
-            <v>Ед. изм.</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Начальный остаток</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Приход</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Расход</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>Конечный остаток</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>3507.24</v>
-          </cell>
-          <cell r="F5">
-            <v>6167.5599999999995</v>
-          </cell>
-          <cell r="H5">
-            <v>0</v>
-          </cell>
-          <cell r="I5">
-            <v>0</v>
-          </cell>
-          <cell r="J5">
-            <v>0</v>
-          </cell>
-          <cell r="K5">
-            <v>0</v>
-          </cell>
-          <cell r="L5">
-            <v>701.44800000000009</v>
-          </cell>
-          <cell r="M5">
-            <v>3842.2039999999997</v>
-          </cell>
-          <cell r="P5">
-            <v>572.5200000000001</v>
-          </cell>
-          <cell r="Q5">
-            <v>798.70000000000016</v>
-          </cell>
-          <cell r="R5">
-            <v>673.1</v>
-          </cell>
-          <cell r="T5">
-            <v>3260.268</v>
-          </cell>
-          <cell r="U5" t="str">
-            <v>крат кор</v>
+            <v>АКЦИИ</v>
           </cell>
         </row>
         <row r="6">
@@ -648,49 +550,7 @@
             <v>Готовые чебупели с ветчиной и сыром Горячая штучка 0,3кг зам  ПОКОМ</v>
           </cell>
           <cell r="B6" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C6">
-            <v>395</v>
-          </cell>
-          <cell r="D6">
-            <v>60</v>
-          </cell>
-          <cell r="E6">
-            <v>168</v>
-          </cell>
-          <cell r="F6">
-            <v>246</v>
-          </cell>
-          <cell r="G6">
-            <v>0.3</v>
-          </cell>
-          <cell r="L6">
-            <v>33.6</v>
-          </cell>
-          <cell r="M6">
-            <v>190.8</v>
-          </cell>
-          <cell r="N6">
-            <v>13</v>
-          </cell>
-          <cell r="O6">
-            <v>7.3214285714285712</v>
-          </cell>
-          <cell r="P6">
-            <v>38.4</v>
-          </cell>
-          <cell r="Q6">
-            <v>33.200000000000003</v>
-          </cell>
-          <cell r="R6">
-            <v>29</v>
-          </cell>
-          <cell r="T6">
-            <v>57.24</v>
-          </cell>
-          <cell r="U6">
-            <v>12</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="7">
@@ -698,1467 +558,181 @@
             <v>Готовые чебупели сочные с мясом ТМ Горячая штучка  0,3кг зам  ПОКОМ</v>
           </cell>
           <cell r="B7" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C7">
-            <v>367</v>
-          </cell>
-          <cell r="D7">
-            <v>324</v>
-          </cell>
-          <cell r="E7">
-            <v>204</v>
-          </cell>
-          <cell r="F7">
-            <v>429</v>
-          </cell>
-          <cell r="G7">
-            <v>0.3</v>
-          </cell>
-          <cell r="L7">
-            <v>40.799999999999997</v>
-          </cell>
-          <cell r="M7">
-            <v>101.39999999999998</v>
-          </cell>
-          <cell r="N7">
-            <v>13</v>
-          </cell>
-          <cell r="O7">
-            <v>10.514705882352942</v>
-          </cell>
-          <cell r="P7">
-            <v>35.6</v>
-          </cell>
-          <cell r="Q7">
-            <v>41.4</v>
-          </cell>
-          <cell r="R7">
-            <v>48.2</v>
-          </cell>
-          <cell r="T7">
-            <v>30.419999999999991</v>
-          </cell>
-          <cell r="U7">
-            <v>12</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
             <v>Готовые чебуреки Сочный мегачебурек.Готовые жареные.ВЕС  ПОКОМ</v>
           </cell>
-          <cell r="B8" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C8">
-            <v>100.8</v>
-          </cell>
-          <cell r="E8">
-            <v>35.840000000000003</v>
-          </cell>
-          <cell r="F8">
-            <v>64.959999999999994</v>
-          </cell>
-          <cell r="G8">
-            <v>1</v>
-          </cell>
-          <cell r="L8">
-            <v>7.168000000000001</v>
-          </cell>
-          <cell r="M8">
-            <v>28.224000000000018</v>
-          </cell>
-          <cell r="N8">
-            <v>13</v>
-          </cell>
-          <cell r="O8">
-            <v>9.0624999999999982</v>
-          </cell>
-          <cell r="P8">
-            <v>0</v>
-          </cell>
-          <cell r="Q8">
-            <v>0</v>
-          </cell>
-          <cell r="R8">
-            <v>0</v>
-          </cell>
-          <cell r="T8">
-            <v>28.224000000000018</v>
-          </cell>
-          <cell r="U8">
-            <v>2.2400000000000002</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
             <v>Жар-ладушки с клубникой и вишней. Жареные с начинкой.ВЕС  ПОКОМ</v>
           </cell>
-          <cell r="B9" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C9">
-            <v>62.3</v>
-          </cell>
-          <cell r="E9">
-            <v>3.7</v>
-          </cell>
-          <cell r="F9">
-            <v>51.2</v>
-          </cell>
-          <cell r="G9">
-            <v>1</v>
-          </cell>
-          <cell r="L9">
-            <v>0.74</v>
-          </cell>
-          <cell r="N9">
-            <v>69.189189189189193</v>
-          </cell>
-          <cell r="O9">
-            <v>69.189189189189193</v>
-          </cell>
-          <cell r="P9">
-            <v>2.96</v>
-          </cell>
-          <cell r="Q9">
-            <v>4.7</v>
-          </cell>
-          <cell r="R9">
-            <v>5.92</v>
-          </cell>
-          <cell r="T9">
-            <v>0</v>
-          </cell>
-          <cell r="U9">
-            <v>3.7</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
             <v>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы 0,25 кг зам  ПОКОМ</v>
           </cell>
-          <cell r="B10" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C10">
-            <v>128</v>
-          </cell>
-          <cell r="D10">
-            <v>12</v>
-          </cell>
-          <cell r="E10">
-            <v>37</v>
-          </cell>
-          <cell r="F10">
-            <v>96</v>
-          </cell>
-          <cell r="G10">
-            <v>0.25</v>
-          </cell>
-          <cell r="L10">
-            <v>7.4</v>
-          </cell>
-          <cell r="N10">
-            <v>12.972972972972972</v>
-          </cell>
-          <cell r="O10">
-            <v>12.972972972972972</v>
-          </cell>
-          <cell r="P10">
-            <v>13</v>
-          </cell>
-          <cell r="Q10">
-            <v>5.8</v>
-          </cell>
-          <cell r="R10">
-            <v>9.6</v>
-          </cell>
-          <cell r="T10">
-            <v>0</v>
-          </cell>
-          <cell r="U10">
-            <v>12</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
             <v>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</v>
           </cell>
-          <cell r="B11" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C11">
-            <v>125.9</v>
-          </cell>
-          <cell r="E11">
-            <v>5.4</v>
-          </cell>
-          <cell r="F11">
-            <v>113.3</v>
-          </cell>
-          <cell r="G11">
-            <v>1</v>
-          </cell>
-          <cell r="L11">
-            <v>1.08</v>
-          </cell>
-          <cell r="N11">
-            <v>104.9074074074074</v>
-          </cell>
-          <cell r="O11">
-            <v>104.9074074074074</v>
-          </cell>
-          <cell r="P11">
-            <v>3.6</v>
-          </cell>
-          <cell r="Q11">
-            <v>2.16</v>
-          </cell>
-          <cell r="R11">
-            <v>7.92</v>
-          </cell>
-          <cell r="T11">
-            <v>0</v>
-          </cell>
-          <cell r="U11">
-            <v>1.8</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС,  ПОКОМ</v>
           </cell>
-          <cell r="B12" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C12">
-            <v>110.8</v>
-          </cell>
-          <cell r="E12">
-            <v>70.3</v>
-          </cell>
-          <cell r="F12">
-            <v>36.799999999999997</v>
-          </cell>
-          <cell r="G12">
-            <v>1</v>
-          </cell>
-          <cell r="L12">
-            <v>14.059999999999999</v>
-          </cell>
-          <cell r="M12">
-            <v>145.97999999999996</v>
-          </cell>
-          <cell r="N12">
-            <v>13</v>
-          </cell>
-          <cell r="O12">
-            <v>2.617354196301565</v>
-          </cell>
-          <cell r="P12">
-            <v>14.8</v>
-          </cell>
-          <cell r="Q12">
-            <v>16.28</v>
-          </cell>
-          <cell r="R12">
-            <v>5.18</v>
-          </cell>
-          <cell r="T12">
-            <v>145.97999999999996</v>
-          </cell>
-          <cell r="U12">
-            <v>3.7</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C13">
-            <v>480</v>
-          </cell>
-          <cell r="D13">
-            <v>192</v>
-          </cell>
-          <cell r="E13">
-            <v>180</v>
-          </cell>
-          <cell r="F13">
-            <v>437</v>
-          </cell>
-          <cell r="G13">
-            <v>0.25</v>
-          </cell>
-          <cell r="L13">
-            <v>36</v>
-          </cell>
-          <cell r="M13">
-            <v>31</v>
-          </cell>
-          <cell r="N13">
-            <v>13</v>
-          </cell>
-          <cell r="O13">
-            <v>12.138888888888889</v>
-          </cell>
-          <cell r="P13">
-            <v>35.200000000000003</v>
-          </cell>
-          <cell r="Q13">
-            <v>52.6</v>
-          </cell>
-          <cell r="R13">
-            <v>47.6</v>
-          </cell>
-          <cell r="T13">
-            <v>7.75</v>
-          </cell>
-          <cell r="U13">
-            <v>6</v>
+            <v>Наггетсы из печи 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки замор.  ПОКОМ</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
+            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
           </cell>
           <cell r="B14" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C14">
-            <v>649</v>
-          </cell>
-          <cell r="D14">
-            <v>132</v>
-          </cell>
-          <cell r="E14">
-            <v>178</v>
-          </cell>
-          <cell r="F14">
-            <v>548</v>
-          </cell>
-          <cell r="G14">
-            <v>0.25</v>
-          </cell>
-          <cell r="L14">
-            <v>35.6</v>
-          </cell>
-          <cell r="N14">
-            <v>15.393258426966291</v>
-          </cell>
-          <cell r="O14">
-            <v>15.393258426966291</v>
-          </cell>
-          <cell r="P14">
-            <v>49.6</v>
-          </cell>
-          <cell r="Q14">
-            <v>66</v>
-          </cell>
-          <cell r="R14">
-            <v>54.8</v>
-          </cell>
-          <cell r="T14">
-            <v>0</v>
-          </cell>
-          <cell r="U14">
-            <v>12</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C15">
-            <v>123</v>
-          </cell>
-          <cell r="E15">
-            <v>18</v>
-          </cell>
-          <cell r="F15">
-            <v>105</v>
-          </cell>
-          <cell r="G15">
-            <v>1</v>
-          </cell>
-          <cell r="L15">
-            <v>3.6</v>
-          </cell>
-          <cell r="N15">
-            <v>29.166666666666664</v>
-          </cell>
-          <cell r="O15">
-            <v>29.166666666666664</v>
-          </cell>
-          <cell r="P15">
-            <v>9.6</v>
-          </cell>
-          <cell r="Q15">
-            <v>8.4</v>
-          </cell>
-          <cell r="R15">
-            <v>3.6</v>
-          </cell>
-          <cell r="T15">
-            <v>0</v>
-          </cell>
-          <cell r="U15">
-            <v>6</v>
+            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Пельмени Grandmeni со сливочным маслом Горячая штучка 0,75 кг ПОКОМ</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C16">
-            <v>8</v>
-          </cell>
-          <cell r="D16">
-            <v>8</v>
-          </cell>
-          <cell r="F16">
-            <v>16</v>
-          </cell>
-          <cell r="G16">
-            <v>0.75</v>
-          </cell>
-          <cell r="L16">
-            <v>0</v>
-          </cell>
-          <cell r="N16" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O16" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="P16">
-            <v>1</v>
-          </cell>
-          <cell r="Q16">
-            <v>0</v>
-          </cell>
-          <cell r="R16">
-            <v>1</v>
-          </cell>
-          <cell r="T16">
-            <v>0</v>
-          </cell>
-          <cell r="U16">
-            <v>8</v>
+            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C17">
-            <v>149</v>
-          </cell>
-          <cell r="E17">
-            <v>68</v>
-          </cell>
-          <cell r="F17">
-            <v>79</v>
-          </cell>
-          <cell r="G17">
-            <v>0.9</v>
-          </cell>
-          <cell r="L17">
-            <v>13.6</v>
-          </cell>
-          <cell r="M17">
-            <v>97.799999999999983</v>
-          </cell>
-          <cell r="N17">
-            <v>12.999999999999998</v>
-          </cell>
-          <cell r="O17">
-            <v>5.8088235294117645</v>
-          </cell>
-          <cell r="P17">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="Q17">
-            <v>15.6</v>
-          </cell>
-          <cell r="R17">
-            <v>9</v>
-          </cell>
-          <cell r="T17">
-            <v>88.019999999999982</v>
-          </cell>
-          <cell r="U17">
-            <v>8</v>
+            <v>Пельмени Grandmeni со сливочным маслом Горячая штучка 0,75 кг ПОКОМ</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
+            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
           </cell>
           <cell r="B18" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C18">
-            <v>704</v>
-          </cell>
-          <cell r="D18">
-            <v>184</v>
-          </cell>
-          <cell r="E18">
-            <v>195</v>
-          </cell>
-          <cell r="F18">
-            <v>665</v>
-          </cell>
-          <cell r="G18">
-            <v>0.9</v>
-          </cell>
-          <cell r="L18">
-            <v>39</v>
-          </cell>
-          <cell r="N18">
-            <v>17.051282051282051</v>
-          </cell>
-          <cell r="O18">
-            <v>17.051282051282051</v>
-          </cell>
-          <cell r="P18">
-            <v>48.2</v>
-          </cell>
-          <cell r="Q18">
-            <v>74.599999999999994</v>
-          </cell>
-          <cell r="R18">
-            <v>64.599999999999994</v>
-          </cell>
-          <cell r="T18">
-            <v>0</v>
-          </cell>
-          <cell r="U18">
-            <v>8</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
+            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
           </cell>
           <cell r="B19" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C19">
-            <v>161</v>
-          </cell>
-          <cell r="D19">
-            <v>304</v>
-          </cell>
-          <cell r="E19">
-            <v>88</v>
-          </cell>
-          <cell r="F19">
-            <v>372</v>
-          </cell>
-          <cell r="G19">
-            <v>0.43</v>
-          </cell>
-          <cell r="L19">
-            <v>17.600000000000001</v>
-          </cell>
-          <cell r="N19">
-            <v>21.136363636363633</v>
-          </cell>
-          <cell r="O19">
-            <v>21.136363636363633</v>
-          </cell>
-          <cell r="P19">
-            <v>17.2</v>
-          </cell>
-          <cell r="Q19">
-            <v>20.6</v>
-          </cell>
-          <cell r="R19">
-            <v>37.6</v>
-          </cell>
-          <cell r="T19">
-            <v>0</v>
-          </cell>
-          <cell r="U19">
-            <v>16</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C20">
-            <v>1910</v>
-          </cell>
-          <cell r="E20">
-            <v>1180</v>
-          </cell>
-          <cell r="F20">
-            <v>690</v>
-          </cell>
-          <cell r="G20">
-            <v>1</v>
-          </cell>
-          <cell r="L20">
-            <v>236</v>
-          </cell>
-          <cell r="M20">
-            <v>2378</v>
-          </cell>
-          <cell r="N20">
-            <v>13</v>
-          </cell>
-          <cell r="O20">
-            <v>2.9237288135593222</v>
-          </cell>
-          <cell r="P20">
-            <v>36</v>
-          </cell>
-          <cell r="Q20">
-            <v>189</v>
-          </cell>
-          <cell r="R20">
-            <v>108</v>
-          </cell>
-          <cell r="S20" t="str">
-            <v>+600кг для оптовиков</v>
-          </cell>
-          <cell r="T20">
-            <v>2378</v>
-          </cell>
-          <cell r="U20">
-            <v>5</v>
+            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C21">
-            <v>778</v>
-          </cell>
-          <cell r="E21">
-            <v>242</v>
-          </cell>
-          <cell r="F21">
-            <v>491</v>
-          </cell>
-          <cell r="G21">
-            <v>0.9</v>
-          </cell>
-          <cell r="L21">
-            <v>48.4</v>
-          </cell>
-          <cell r="M21">
-            <v>138.19999999999993</v>
-          </cell>
-          <cell r="N21">
-            <v>12.999999999999998</v>
-          </cell>
-          <cell r="O21">
-            <v>10.144628099173554</v>
-          </cell>
-          <cell r="P21">
-            <v>43</v>
-          </cell>
-          <cell r="Q21">
-            <v>75.8</v>
-          </cell>
-          <cell r="R21">
-            <v>54.6</v>
-          </cell>
-          <cell r="T21">
-            <v>124.37999999999994</v>
-          </cell>
-          <cell r="U21">
-            <v>8</v>
+            <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
+            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
           </cell>
           <cell r="B22" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C22">
-            <v>243</v>
-          </cell>
-          <cell r="D22">
-            <v>96</v>
-          </cell>
-          <cell r="E22">
-            <v>103</v>
-          </cell>
-          <cell r="F22">
-            <v>219</v>
-          </cell>
-          <cell r="G22">
-            <v>0.43</v>
-          </cell>
-          <cell r="L22">
-            <v>20.6</v>
-          </cell>
-          <cell r="M22">
-            <v>48.800000000000011</v>
-          </cell>
-          <cell r="N22">
-            <v>13</v>
-          </cell>
-          <cell r="O22">
-            <v>10.631067961165048</v>
-          </cell>
-          <cell r="P22">
-            <v>14.8</v>
-          </cell>
-          <cell r="Q22">
-            <v>25</v>
-          </cell>
-          <cell r="R22">
-            <v>24.2</v>
-          </cell>
-          <cell r="T22">
-            <v>20.984000000000005</v>
-          </cell>
-          <cell r="U22">
-            <v>16</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C23">
-            <v>57</v>
-          </cell>
-          <cell r="E23">
-            <v>16</v>
-          </cell>
-          <cell r="F23">
-            <v>41</v>
-          </cell>
-          <cell r="G23">
-            <v>0.7</v>
-          </cell>
-          <cell r="L23">
-            <v>3.2</v>
-          </cell>
-          <cell r="M23">
-            <v>0.60000000000000142</v>
-          </cell>
-          <cell r="N23">
-            <v>13</v>
-          </cell>
-          <cell r="O23">
-            <v>12.8125</v>
-          </cell>
-          <cell r="P23">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q23">
-            <v>6.4</v>
-          </cell>
-          <cell r="R23">
-            <v>1.4</v>
-          </cell>
-          <cell r="T23">
-            <v>0.42000000000000098</v>
-          </cell>
-          <cell r="U23">
-            <v>8</v>
+            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+            <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
           </cell>
           <cell r="B24" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C24">
-            <v>6</v>
-          </cell>
-          <cell r="D24">
-            <v>8</v>
-          </cell>
-          <cell r="F24">
-            <v>11</v>
-          </cell>
-          <cell r="G24">
-            <v>0.9</v>
-          </cell>
-          <cell r="L24">
-            <v>0</v>
-          </cell>
-          <cell r="N24" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O24" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="P24">
-            <v>0.6</v>
-          </cell>
-          <cell r="Q24">
-            <v>0.6</v>
-          </cell>
-          <cell r="R24">
-            <v>1</v>
-          </cell>
-          <cell r="T24">
-            <v>0</v>
-          </cell>
-          <cell r="U24">
-            <v>8</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C25">
-            <v>205</v>
-          </cell>
-          <cell r="D25">
-            <v>120</v>
-          </cell>
-          <cell r="E25">
-            <v>85</v>
-          </cell>
-          <cell r="F25">
-            <v>225</v>
-          </cell>
-          <cell r="G25">
-            <v>1</v>
-          </cell>
-          <cell r="L25">
-            <v>17</v>
-          </cell>
-          <cell r="N25">
-            <v>13.235294117647058</v>
-          </cell>
-          <cell r="O25">
-            <v>13.235294117647058</v>
-          </cell>
-          <cell r="P25">
-            <v>27</v>
-          </cell>
-          <cell r="Q25">
-            <v>13</v>
-          </cell>
-          <cell r="R25">
-            <v>24</v>
-          </cell>
-          <cell r="T25">
-            <v>0</v>
-          </cell>
-          <cell r="U25">
-            <v>5</v>
+            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
+            <v>Пельмени Отборные с говядиной 0,9 кг НОВА ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
           </cell>
           <cell r="B26" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C26">
-            <v>15</v>
-          </cell>
-          <cell r="F26">
-            <v>15</v>
-          </cell>
-          <cell r="G26">
-            <v>1</v>
-          </cell>
-          <cell r="L26">
-            <v>0</v>
-          </cell>
-          <cell r="N26" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O26" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="P26">
-            <v>0</v>
-          </cell>
-          <cell r="Q26">
-            <v>0</v>
-          </cell>
-          <cell r="R26">
-            <v>1</v>
-          </cell>
-          <cell r="T26">
-            <v>0</v>
-          </cell>
-          <cell r="U26">
-            <v>5</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Снеки  ЖАР-мени ВЕС. рубленые в тесте замор.  ПОКОМ</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C27">
-            <v>173.5</v>
-          </cell>
-          <cell r="E27">
-            <v>110</v>
-          </cell>
-          <cell r="F27">
-            <v>58</v>
-          </cell>
-          <cell r="G27">
-            <v>1</v>
-          </cell>
-          <cell r="L27">
-            <v>22</v>
-          </cell>
-          <cell r="M27">
-            <v>228</v>
-          </cell>
-          <cell r="N27">
-            <v>13</v>
-          </cell>
-          <cell r="O27">
-            <v>2.6363636363636362</v>
-          </cell>
-          <cell r="P27">
-            <v>22</v>
-          </cell>
-          <cell r="Q27">
-            <v>19.7</v>
-          </cell>
-          <cell r="R27">
-            <v>16.5</v>
-          </cell>
-          <cell r="T27">
-            <v>228</v>
-          </cell>
-          <cell r="U27">
-            <v>5.5</v>
+            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C28">
-            <v>48</v>
-          </cell>
-          <cell r="F28">
-            <v>48</v>
-          </cell>
-          <cell r="G28">
-            <v>0.33</v>
-          </cell>
-          <cell r="L28">
-            <v>0</v>
-          </cell>
-          <cell r="N28" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O28" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="P28">
-            <v>0</v>
-          </cell>
-          <cell r="Q28">
-            <v>0</v>
-          </cell>
-          <cell r="R28">
-            <v>0</v>
-          </cell>
-          <cell r="T28">
-            <v>0</v>
-          </cell>
-          <cell r="U28">
-            <v>6</v>
+            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C29">
-            <v>42</v>
-          </cell>
-          <cell r="F29">
-            <v>39</v>
-          </cell>
-          <cell r="G29">
-            <v>1</v>
-          </cell>
-          <cell r="L29">
-            <v>0</v>
-          </cell>
-          <cell r="N29" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O29" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="P29">
-            <v>3</v>
-          </cell>
-          <cell r="Q29">
-            <v>0.6</v>
-          </cell>
-          <cell r="R29">
-            <v>1.2</v>
-          </cell>
-          <cell r="T29">
-            <v>0</v>
-          </cell>
-          <cell r="U29">
-            <v>3</v>
+            <v>Снеки  ЖАР-мени ВЕС. рубленые в тесте замор.  ПОКОМ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C30">
-            <v>276</v>
-          </cell>
-          <cell r="D30">
-            <v>240</v>
-          </cell>
-          <cell r="E30">
-            <v>168</v>
-          </cell>
-          <cell r="F30">
-            <v>313</v>
-          </cell>
-          <cell r="G30">
-            <v>0.25</v>
-          </cell>
-          <cell r="L30">
-            <v>33.6</v>
-          </cell>
-          <cell r="M30">
-            <v>123.80000000000001</v>
-          </cell>
-          <cell r="N30">
-            <v>13</v>
-          </cell>
-          <cell r="O30">
-            <v>9.3154761904761898</v>
-          </cell>
-          <cell r="P30">
-            <v>28.6</v>
-          </cell>
-          <cell r="Q30">
-            <v>30.2</v>
-          </cell>
-          <cell r="R30">
-            <v>35</v>
-          </cell>
-          <cell r="T30">
-            <v>30.950000000000003</v>
-          </cell>
-          <cell r="U30">
-            <v>12</v>
+            <v>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Хрустящие крылышки ТМ Горячая штучка 0,3 кг зам  ПОКОМ</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C31">
-            <v>5.4</v>
-          </cell>
-          <cell r="F31">
-            <v>5.4</v>
-          </cell>
-          <cell r="G31">
-            <v>0</v>
-          </cell>
-          <cell r="L31">
-            <v>0</v>
-          </cell>
-          <cell r="N31" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O31" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="P31">
-            <v>0</v>
-          </cell>
-          <cell r="Q31">
-            <v>0</v>
-          </cell>
-          <cell r="R31">
-            <v>0</v>
-          </cell>
-          <cell r="T31">
-            <v>0</v>
-          </cell>
-          <cell r="U31">
-            <v>0</v>
+            <v>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C32">
-            <v>5.4</v>
-          </cell>
-          <cell r="D32">
-            <v>19.8</v>
-          </cell>
-          <cell r="F32">
-            <v>25.2</v>
-          </cell>
-          <cell r="G32">
-            <v>1</v>
-          </cell>
-          <cell r="L32">
-            <v>0</v>
-          </cell>
-          <cell r="N32" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O32" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="P32">
-            <v>0.36</v>
-          </cell>
-          <cell r="Q32">
-            <v>0.36</v>
-          </cell>
-          <cell r="R32">
-            <v>0</v>
-          </cell>
-          <cell r="T32">
-            <v>0</v>
-          </cell>
-          <cell r="U32">
-            <v>1.8</v>
+            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Чебупай сочное яблоко ТМ Горячая штучка ТС Чебупай 0,2 кг УВС.  зам  ПОКОМ</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C33">
-            <v>48</v>
-          </cell>
-          <cell r="E33">
-            <v>8</v>
-          </cell>
-          <cell r="F33">
-            <v>35</v>
-          </cell>
-          <cell r="G33">
-            <v>0.2</v>
-          </cell>
-          <cell r="L33">
-            <v>1.6</v>
-          </cell>
-          <cell r="N33">
-            <v>21.875</v>
-          </cell>
-          <cell r="O33">
-            <v>21.875</v>
-          </cell>
-          <cell r="P33">
-            <v>2</v>
-          </cell>
-          <cell r="Q33">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="R33">
-            <v>2.4</v>
-          </cell>
-          <cell r="T33">
-            <v>0</v>
-          </cell>
-          <cell r="U33">
-            <v>6</v>
+            <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Чебупай спелая вишня ТМ Горячая штучка ТС Чебупай 0,2 кг УВС. зам  ПОКОМ</v>
+            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
           </cell>
           <cell r="B34" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C34">
-            <v>62</v>
-          </cell>
-          <cell r="E34">
-            <v>13</v>
-          </cell>
-          <cell r="F34">
-            <v>44</v>
-          </cell>
-          <cell r="G34">
-            <v>0.2</v>
-          </cell>
-          <cell r="L34">
-            <v>2.6</v>
-          </cell>
-          <cell r="N34">
-            <v>16.923076923076923</v>
-          </cell>
-          <cell r="O34">
-            <v>16.923076923076923</v>
-          </cell>
-          <cell r="P34">
-            <v>3.2</v>
-          </cell>
-          <cell r="Q34">
-            <v>5.2</v>
-          </cell>
-          <cell r="R34">
-            <v>2.4</v>
-          </cell>
-          <cell r="T34">
-            <v>0</v>
-          </cell>
-          <cell r="U34">
-            <v>6</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
+            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
           </cell>
           <cell r="B35" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C35">
-            <v>480</v>
-          </cell>
-          <cell r="D35">
-            <v>12</v>
-          </cell>
-          <cell r="E35">
-            <v>159</v>
-          </cell>
-          <cell r="F35">
-            <v>295</v>
-          </cell>
-          <cell r="G35">
-            <v>0.25</v>
-          </cell>
-          <cell r="L35">
-            <v>31.8</v>
-          </cell>
-          <cell r="M35">
-            <v>118.40000000000003</v>
-          </cell>
-          <cell r="N35">
-            <v>13</v>
-          </cell>
-          <cell r="O35">
-            <v>9.2767295597484267</v>
-          </cell>
-          <cell r="P35">
-            <v>49.6</v>
-          </cell>
-          <cell r="Q35">
-            <v>41.8</v>
-          </cell>
-          <cell r="R35">
-            <v>34.200000000000003</v>
-          </cell>
-          <cell r="T35">
-            <v>29.600000000000009</v>
-          </cell>
-          <cell r="U35">
-            <v>12</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C36">
-            <v>406</v>
-          </cell>
-          <cell r="D36">
-            <v>84</v>
-          </cell>
-          <cell r="E36">
-            <v>172</v>
-          </cell>
-          <cell r="F36">
-            <v>286</v>
-          </cell>
-          <cell r="G36">
-            <v>0.25</v>
-          </cell>
-          <cell r="L36">
-            <v>34.4</v>
-          </cell>
-          <cell r="M36">
-            <v>161.19999999999999</v>
-          </cell>
-          <cell r="N36">
-            <v>13</v>
-          </cell>
-          <cell r="O36">
-            <v>8.3139534883720927</v>
-          </cell>
-          <cell r="P36">
-            <v>32.200000000000003</v>
-          </cell>
-          <cell r="Q36">
-            <v>40.6</v>
-          </cell>
-          <cell r="R36">
-            <v>34</v>
-          </cell>
-          <cell r="T36">
-            <v>40.299999999999997</v>
-          </cell>
-          <cell r="U36">
-            <v>12</v>
+            <v>Чебуреки сочные, ВЕС, куриные жарен. зам  ПОКОМ</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Чебуреки Мясные вес 2,7 кг Кулинарные изделия мясосодержащие рубленые в тесте жарен  ПОКОМ</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C37">
-            <v>2.7</v>
-          </cell>
-          <cell r="F37">
-            <v>2.7</v>
-          </cell>
-          <cell r="G37">
-            <v>1</v>
-          </cell>
-          <cell r="L37">
-            <v>0</v>
-          </cell>
-          <cell r="M37">
-            <v>50</v>
-          </cell>
-          <cell r="N37" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O37" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="P37">
-            <v>0</v>
-          </cell>
-          <cell r="Q37">
-            <v>2.7</v>
-          </cell>
-          <cell r="R37">
-            <v>9.18</v>
-          </cell>
-          <cell r="T37">
-            <v>50</v>
-          </cell>
-          <cell r="U37">
-            <v>2.7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Чебуреки сочные, ВЕС, куриные жарен. зам  ПОКОМ</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C38">
-            <v>70</v>
-          </cell>
-          <cell r="F38">
-            <v>65</v>
-          </cell>
-          <cell r="G38">
-            <v>1</v>
-          </cell>
-          <cell r="L38">
-            <v>0</v>
-          </cell>
-          <cell r="N38" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O38" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="P38">
-            <v>32</v>
-          </cell>
-          <cell r="Q38">
-            <v>2</v>
-          </cell>
-          <cell r="R38">
-            <v>0</v>
-          </cell>
-          <cell r="T38">
-            <v>0</v>
-          </cell>
-          <cell r="U38">
-            <v>5</v>
+            <v>БОНУС_Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
           </cell>
         </row>
       </sheetData>
@@ -2174,10 +748,10 @@
       <sheetName val="TDSheet"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>Период: 15.09.2023 - 22.09.2023</v>
+            <v>Период: 22.09.2023 - 29.09.2023</v>
           </cell>
         </row>
         <row r="3">
@@ -2218,16 +792,19 @@
             <v>ост без заказа</v>
           </cell>
           <cell r="P3" t="str">
-            <v>ср 30,08</v>
+            <v>ср 06,09</v>
           </cell>
           <cell r="Q3" t="str">
-            <v>ср 06,09</v>
+            <v>ср 14,09</v>
           </cell>
           <cell r="R3" t="str">
-            <v>ср 14,09</v>
+            <v>ср 22,09</v>
           </cell>
           <cell r="S3" t="str">
             <v>коментарий</v>
+          </cell>
+          <cell r="T3" t="str">
+            <v>вес</v>
           </cell>
         </row>
         <row r="4">
@@ -2252,10 +829,10 @@
         </row>
         <row r="5">
           <cell r="E5">
-            <v>3365.5</v>
+            <v>3507.24</v>
           </cell>
           <cell r="F5">
-            <v>7397.9999999999991</v>
+            <v>6167.5599999999995</v>
           </cell>
           <cell r="H5">
             <v>0</v>
@@ -2270,19 +847,25 @@
             <v>0</v>
           </cell>
           <cell r="L5">
+            <v>701.44800000000009</v>
+          </cell>
+          <cell r="M5">
+            <v>3842.2039999999997</v>
+          </cell>
+          <cell r="P5">
+            <v>572.5200000000001</v>
+          </cell>
+          <cell r="Q5">
+            <v>798.70000000000016</v>
+          </cell>
+          <cell r="R5">
             <v>673.1</v>
           </cell>
-          <cell r="M5">
-            <v>1925.4999999999998</v>
-          </cell>
-          <cell r="P5">
-            <v>461.43600000000004</v>
-          </cell>
-          <cell r="Q5">
-            <v>572.5200000000001</v>
-          </cell>
-          <cell r="R5">
-            <v>798.70000000000016</v>
+          <cell r="T5">
+            <v>3260.268</v>
+          </cell>
+          <cell r="U5" t="str">
+            <v>крат кор</v>
           </cell>
         </row>
         <row r="6">
@@ -2293,37 +876,46 @@
             <v>шт</v>
           </cell>
           <cell r="C6">
-            <v>478</v>
+            <v>395</v>
+          </cell>
+          <cell r="D6">
+            <v>60</v>
           </cell>
           <cell r="E6">
-            <v>145</v>
+            <v>168</v>
           </cell>
           <cell r="F6">
-            <v>322</v>
+            <v>246</v>
           </cell>
           <cell r="G6">
             <v>0.3</v>
           </cell>
           <cell r="L6">
-            <v>29</v>
+            <v>33.6</v>
           </cell>
           <cell r="M6">
-            <v>55</v>
+            <v>190.8</v>
           </cell>
           <cell r="N6">
             <v>13</v>
           </cell>
           <cell r="O6">
-            <v>11.103448275862069</v>
+            <v>7.3214285714285712</v>
           </cell>
           <cell r="P6">
-            <v>21.2</v>
+            <v>38.4</v>
           </cell>
           <cell r="Q6">
-            <v>38.4</v>
+            <v>33.200000000000003</v>
           </cell>
           <cell r="R6">
-            <v>33.200000000000003</v>
+            <v>29</v>
+          </cell>
+          <cell r="T6">
+            <v>57.24</v>
+          </cell>
+          <cell r="U6">
+            <v>12</v>
           </cell>
         </row>
         <row r="7">
@@ -2334,40 +926,46 @@
             <v>шт</v>
           </cell>
           <cell r="C7">
-            <v>347</v>
+            <v>367</v>
           </cell>
           <cell r="D7">
-            <v>216</v>
+            <v>324</v>
           </cell>
           <cell r="E7">
-            <v>241</v>
+            <v>204</v>
           </cell>
           <cell r="F7">
-            <v>303</v>
+            <v>429</v>
           </cell>
           <cell r="G7">
             <v>0.3</v>
           </cell>
           <cell r="L7">
-            <v>48.2</v>
+            <v>40.799999999999997</v>
           </cell>
           <cell r="M7">
-            <v>323.60000000000002</v>
+            <v>101.39999999999998</v>
           </cell>
           <cell r="N7">
             <v>13</v>
           </cell>
           <cell r="O7">
-            <v>6.2863070539419086</v>
+            <v>10.514705882352942</v>
           </cell>
           <cell r="P7">
-            <v>29</v>
+            <v>35.6</v>
           </cell>
           <cell r="Q7">
-            <v>35.6</v>
+            <v>41.4</v>
           </cell>
           <cell r="R7">
-            <v>41.4</v>
+            <v>48.2</v>
+          </cell>
+          <cell r="T7">
+            <v>30.419999999999991</v>
+          </cell>
+          <cell r="U7">
+            <v>12</v>
           </cell>
         </row>
         <row r="8">
@@ -2377,32 +975,44 @@
           <cell r="B8" t="str">
             <v>кг</v>
           </cell>
-          <cell r="D8">
+          <cell r="C8">
             <v>100.8</v>
           </cell>
+          <cell r="E8">
+            <v>35.840000000000003</v>
+          </cell>
           <cell r="F8">
-            <v>100.8</v>
+            <v>64.959999999999994</v>
           </cell>
           <cell r="G8">
             <v>1</v>
           </cell>
           <cell r="L8">
-            <v>0</v>
-          </cell>
-          <cell r="N8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O8" t="e">
-            <v>#DIV/0!</v>
+            <v>7.168000000000001</v>
+          </cell>
+          <cell r="M8">
+            <v>28.224000000000018</v>
+          </cell>
+          <cell r="N8">
+            <v>13</v>
+          </cell>
+          <cell r="O8">
+            <v>9.0624999999999982</v>
           </cell>
           <cell r="P8">
-            <v>0.89600000000000013</v>
+            <v>0</v>
           </cell>
           <cell r="Q8">
             <v>0</v>
           </cell>
           <cell r="R8">
             <v>0</v>
+          </cell>
+          <cell r="T8">
+            <v>28.224000000000018</v>
+          </cell>
+          <cell r="U8">
+            <v>2.2400000000000002</v>
           </cell>
         </row>
         <row r="9">
@@ -2413,37 +1023,40 @@
             <v>кг</v>
           </cell>
           <cell r="C9">
-            <v>84.5</v>
+            <v>62.3</v>
           </cell>
           <cell r="E9">
-            <v>29.6</v>
+            <v>3.7</v>
           </cell>
           <cell r="F9">
-            <v>54.9</v>
+            <v>51.2</v>
           </cell>
           <cell r="G9">
             <v>1</v>
           </cell>
           <cell r="L9">
+            <v>0.74</v>
+          </cell>
+          <cell r="N9">
+            <v>69.189189189189193</v>
+          </cell>
+          <cell r="O9">
+            <v>69.189189189189193</v>
+          </cell>
+          <cell r="P9">
+            <v>2.96</v>
+          </cell>
+          <cell r="Q9">
+            <v>4.7</v>
+          </cell>
+          <cell r="R9">
             <v>5.92</v>
           </cell>
-          <cell r="M9">
-            <v>22.059999999999995</v>
-          </cell>
-          <cell r="N9">
-            <v>12.999999999999998</v>
-          </cell>
-          <cell r="O9">
-            <v>9.2736486486486491</v>
-          </cell>
-          <cell r="P9">
-            <v>0</v>
-          </cell>
-          <cell r="Q9">
-            <v>2.96</v>
-          </cell>
-          <cell r="R9">
-            <v>4.7</v>
+          <cell r="T9">
+            <v>0</v>
+          </cell>
+          <cell r="U9">
+            <v>3.7</v>
           </cell>
         </row>
         <row r="10">
@@ -2454,37 +1067,43 @@
             <v>шт</v>
           </cell>
           <cell r="C10">
-            <v>175</v>
+            <v>128</v>
+          </cell>
+          <cell r="D10">
+            <v>12</v>
           </cell>
           <cell r="E10">
-            <v>48</v>
+            <v>37</v>
           </cell>
           <cell r="F10">
-            <v>121</v>
+            <v>96</v>
           </cell>
           <cell r="G10">
             <v>0.25</v>
           </cell>
           <cell r="L10">
+            <v>7.4</v>
+          </cell>
+          <cell r="N10">
+            <v>12.972972972972972</v>
+          </cell>
+          <cell r="O10">
+            <v>12.972972972972972</v>
+          </cell>
+          <cell r="P10">
+            <v>13</v>
+          </cell>
+          <cell r="Q10">
+            <v>5.8</v>
+          </cell>
+          <cell r="R10">
             <v>9.6</v>
           </cell>
-          <cell r="M10">
-            <v>3.7999999999999972</v>
-          </cell>
-          <cell r="N10">
-            <v>13</v>
-          </cell>
-          <cell r="O10">
-            <v>12.604166666666668</v>
-          </cell>
-          <cell r="P10">
-            <v>10.6</v>
-          </cell>
-          <cell r="Q10">
-            <v>13</v>
-          </cell>
-          <cell r="R10">
-            <v>5.8</v>
+          <cell r="T10">
+            <v>0</v>
+          </cell>
+          <cell r="U10">
+            <v>12</v>
           </cell>
         </row>
         <row r="11">
@@ -2495,34 +1114,40 @@
             <v>кг</v>
           </cell>
           <cell r="C11">
-            <v>163.69999999999999</v>
+            <v>125.9</v>
           </cell>
           <cell r="E11">
-            <v>39.6</v>
+            <v>5.4</v>
           </cell>
           <cell r="F11">
-            <v>118.7</v>
+            <v>113.3</v>
           </cell>
           <cell r="G11">
             <v>1</v>
           </cell>
           <cell r="L11">
+            <v>1.08</v>
+          </cell>
+          <cell r="N11">
+            <v>104.9074074074074</v>
+          </cell>
+          <cell r="O11">
+            <v>104.9074074074074</v>
+          </cell>
+          <cell r="P11">
+            <v>3.6</v>
+          </cell>
+          <cell r="Q11">
+            <v>2.16</v>
+          </cell>
+          <cell r="R11">
             <v>7.92</v>
           </cell>
-          <cell r="N11">
-            <v>14.987373737373737</v>
-          </cell>
-          <cell r="O11">
-            <v>14.987373737373737</v>
-          </cell>
-          <cell r="P11">
-            <v>0.36</v>
-          </cell>
-          <cell r="Q11">
-            <v>3.6</v>
-          </cell>
-          <cell r="R11">
-            <v>2.16</v>
+          <cell r="T11">
+            <v>0</v>
+          </cell>
+          <cell r="U11">
+            <v>1.8</v>
           </cell>
         </row>
         <row r="12">
@@ -2533,719 +1158,800 @@
             <v>кг</v>
           </cell>
           <cell r="C12">
-            <v>33.1</v>
-          </cell>
-          <cell r="D12">
-            <v>107.3</v>
+            <v>110.8</v>
           </cell>
           <cell r="E12">
-            <v>25.9</v>
+            <v>70.3</v>
           </cell>
           <cell r="F12">
-            <v>107.1</v>
+            <v>36.799999999999997</v>
           </cell>
           <cell r="G12">
             <v>1</v>
           </cell>
           <cell r="L12">
+            <v>14.059999999999999</v>
+          </cell>
+          <cell r="M12">
+            <v>145.97999999999996</v>
+          </cell>
+          <cell r="N12">
+            <v>13</v>
+          </cell>
+          <cell r="O12">
+            <v>2.617354196301565</v>
+          </cell>
+          <cell r="P12">
+            <v>14.8</v>
+          </cell>
+          <cell r="Q12">
+            <v>16.28</v>
+          </cell>
+          <cell r="R12">
             <v>5.18</v>
           </cell>
-          <cell r="N12">
-            <v>20.675675675675677</v>
-          </cell>
-          <cell r="O12">
-            <v>20.675675675675677</v>
-          </cell>
-          <cell r="P12">
-            <v>16.22</v>
-          </cell>
-          <cell r="Q12">
-            <v>14.8</v>
-          </cell>
-          <cell r="R12">
-            <v>16.28</v>
+          <cell r="T12">
+            <v>145.97999999999996</v>
+          </cell>
+          <cell r="U12">
+            <v>3.7</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Наггетсы из печи 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки замор.  ПОКОМ</v>
+            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
           </cell>
           <cell r="B13" t="str">
             <v>шт</v>
           </cell>
           <cell r="C13">
-            <v>-2</v>
+            <v>480</v>
           </cell>
           <cell r="D13">
-            <v>2</v>
+            <v>192</v>
+          </cell>
+          <cell r="E13">
+            <v>180</v>
+          </cell>
+          <cell r="F13">
+            <v>437</v>
           </cell>
           <cell r="G13">
-            <v>0</v>
+            <v>0.25</v>
           </cell>
           <cell r="L13">
-            <v>0</v>
-          </cell>
-          <cell r="N13" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O13" t="e">
-            <v>#DIV/0!</v>
+            <v>36</v>
+          </cell>
+          <cell r="M13">
+            <v>31</v>
+          </cell>
+          <cell r="N13">
+            <v>13</v>
+          </cell>
+          <cell r="O13">
+            <v>12.138888888888889</v>
           </cell>
           <cell r="P13">
-            <v>0.4</v>
+            <v>35.200000000000003</v>
           </cell>
           <cell r="Q13">
-            <v>0</v>
+            <v>52.6</v>
           </cell>
           <cell r="R13">
-            <v>0</v>
+            <v>47.6</v>
+          </cell>
+          <cell r="T13">
+            <v>7.75</v>
+          </cell>
+          <cell r="U13">
+            <v>6</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
+            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
           </cell>
           <cell r="B14" t="str">
             <v>шт</v>
           </cell>
           <cell r="C14">
-            <v>260</v>
+            <v>649</v>
           </cell>
           <cell r="D14">
-            <v>444</v>
+            <v>132</v>
           </cell>
           <cell r="E14">
-            <v>238</v>
+            <v>178</v>
           </cell>
           <cell r="F14">
-            <v>425</v>
+            <v>548</v>
           </cell>
           <cell r="G14">
             <v>0.25</v>
           </cell>
           <cell r="L14">
-            <v>47.6</v>
-          </cell>
-          <cell r="M14">
-            <v>193.80000000000007</v>
+            <v>35.6</v>
           </cell>
           <cell r="N14">
-            <v>13.000000000000002</v>
+            <v>15.393258426966291</v>
           </cell>
           <cell r="O14">
-            <v>8.9285714285714288</v>
+            <v>15.393258426966291</v>
           </cell>
           <cell r="P14">
-            <v>31.8</v>
+            <v>49.6</v>
           </cell>
           <cell r="Q14">
-            <v>35.200000000000003</v>
+            <v>66</v>
           </cell>
           <cell r="R14">
-            <v>52.6</v>
+            <v>54.8</v>
+          </cell>
+          <cell r="T14">
+            <v>0</v>
+          </cell>
+          <cell r="U14">
+            <v>12</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
+            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
           </cell>
           <cell r="B15" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="C15">
-            <v>461</v>
-          </cell>
-          <cell r="D15">
-            <v>432</v>
+            <v>123</v>
           </cell>
           <cell r="E15">
-            <v>274</v>
+            <v>18</v>
           </cell>
           <cell r="F15">
-            <v>576</v>
+            <v>105</v>
           </cell>
           <cell r="G15">
-            <v>0.25</v>
+            <v>1</v>
           </cell>
           <cell r="L15">
-            <v>54.8</v>
-          </cell>
-          <cell r="M15">
-            <v>136.39999999999998</v>
+            <v>3.6</v>
           </cell>
           <cell r="N15">
-            <v>13</v>
+            <v>29.166666666666664</v>
           </cell>
           <cell r="O15">
-            <v>10.51094890510949</v>
+            <v>29.166666666666664</v>
           </cell>
           <cell r="P15">
-            <v>35.4</v>
+            <v>9.6</v>
           </cell>
           <cell r="Q15">
-            <v>49.6</v>
+            <v>8.4</v>
           </cell>
           <cell r="R15">
-            <v>66</v>
+            <v>3.6</v>
+          </cell>
+          <cell r="T15">
+            <v>0</v>
+          </cell>
+          <cell r="U15">
+            <v>6</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
+            <v>Пельмени Grandmeni со сливочным маслом Горячая штучка 0,75 кг ПОКОМ</v>
           </cell>
           <cell r="B16" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="C16">
-            <v>147</v>
-          </cell>
-          <cell r="E16">
-            <v>18</v>
+            <v>8</v>
+          </cell>
+          <cell r="D16">
+            <v>8</v>
           </cell>
           <cell r="F16">
-            <v>123</v>
+            <v>16</v>
           </cell>
           <cell r="G16">
+            <v>0.75</v>
+          </cell>
+          <cell r="L16">
+            <v>0</v>
+          </cell>
+          <cell r="N16" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O16" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="P16">
             <v>1</v>
           </cell>
-          <cell r="L16">
-            <v>3.6</v>
-          </cell>
-          <cell r="N16">
-            <v>34.166666666666664</v>
-          </cell>
-          <cell r="O16">
-            <v>34.166666666666664</v>
-          </cell>
-          <cell r="P16">
-            <v>15.6</v>
-          </cell>
           <cell r="Q16">
-            <v>9.6</v>
+            <v>0</v>
           </cell>
           <cell r="R16">
-            <v>8.4</v>
+            <v>1</v>
+          </cell>
+          <cell r="T16">
+            <v>0</v>
+          </cell>
+          <cell r="U16">
+            <v>8</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Пельмени Grandmeni со сливочным маслом Горячая штучка 0,75 кг ПОКОМ</v>
+            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
           </cell>
           <cell r="B17" t="str">
             <v>шт</v>
           </cell>
           <cell r="C17">
-            <v>16</v>
+            <v>149</v>
           </cell>
           <cell r="E17">
-            <v>5</v>
+            <v>68</v>
           </cell>
           <cell r="F17">
+            <v>79</v>
+          </cell>
+          <cell r="G17">
+            <v>0.9</v>
+          </cell>
+          <cell r="L17">
+            <v>13.6</v>
+          </cell>
+          <cell r="M17">
+            <v>97.799999999999983</v>
+          </cell>
+          <cell r="N17">
+            <v>12.999999999999998</v>
+          </cell>
+          <cell r="O17">
+            <v>5.8088235294117645</v>
+          </cell>
+          <cell r="P17">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="Q17">
+            <v>15.6</v>
+          </cell>
+          <cell r="R17">
+            <v>9</v>
+          </cell>
+          <cell r="T17">
+            <v>88.019999999999982</v>
+          </cell>
+          <cell r="U17">
             <v>8</v>
-          </cell>
-          <cell r="G17">
-            <v>0.75</v>
-          </cell>
-          <cell r="L17">
-            <v>1</v>
-          </cell>
-          <cell r="M17">
-            <v>5</v>
-          </cell>
-          <cell r="N17">
-            <v>13</v>
-          </cell>
-          <cell r="O17">
-            <v>8</v>
-          </cell>
-          <cell r="P17">
-            <v>0</v>
-          </cell>
-          <cell r="Q17">
-            <v>1</v>
-          </cell>
-          <cell r="R17">
-            <v>0</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
+            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
           </cell>
           <cell r="B18" t="str">
             <v>шт</v>
           </cell>
           <cell r="C18">
-            <v>94</v>
+            <v>704</v>
           </cell>
           <cell r="D18">
-            <v>112</v>
+            <v>184</v>
           </cell>
           <cell r="E18">
-            <v>45</v>
+            <v>195</v>
           </cell>
           <cell r="F18">
-            <v>147</v>
+            <v>665</v>
           </cell>
           <cell r="G18">
             <v>0.9</v>
           </cell>
           <cell r="L18">
-            <v>9</v>
+            <v>39</v>
           </cell>
           <cell r="N18">
-            <v>16.333333333333332</v>
+            <v>17.051282051282051</v>
           </cell>
           <cell r="O18">
-            <v>16.333333333333332</v>
+            <v>17.051282051282051</v>
           </cell>
           <cell r="P18">
-            <v>13.2</v>
+            <v>48.2</v>
           </cell>
           <cell r="Q18">
-            <v>4.5999999999999996</v>
+            <v>74.599999999999994</v>
           </cell>
           <cell r="R18">
-            <v>15.6</v>
+            <v>64.599999999999994</v>
+          </cell>
+          <cell r="T18">
+            <v>0</v>
+          </cell>
+          <cell r="U18">
+            <v>8</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
+            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
           </cell>
           <cell r="B19" t="str">
             <v>шт</v>
           </cell>
           <cell r="C19">
-            <v>455</v>
+            <v>161</v>
           </cell>
           <cell r="D19">
-            <v>568</v>
+            <v>304</v>
           </cell>
           <cell r="E19">
-            <v>323</v>
+            <v>88</v>
           </cell>
           <cell r="F19">
-            <v>656</v>
+            <v>372</v>
           </cell>
           <cell r="G19">
-            <v>0.9</v>
+            <v>0.43</v>
           </cell>
           <cell r="L19">
-            <v>64.599999999999994</v>
-          </cell>
-          <cell r="M19">
-            <v>183.79999999999995</v>
+            <v>17.600000000000001</v>
           </cell>
           <cell r="N19">
-            <v>13</v>
+            <v>21.136363636363633</v>
           </cell>
           <cell r="O19">
-            <v>10.154798761609907</v>
+            <v>21.136363636363633</v>
           </cell>
           <cell r="P19">
-            <v>13.2</v>
+            <v>17.2</v>
           </cell>
           <cell r="Q19">
-            <v>48.2</v>
+            <v>20.6</v>
           </cell>
           <cell r="R19">
-            <v>74.599999999999994</v>
+            <v>37.6</v>
+          </cell>
+          <cell r="T19">
+            <v>0</v>
+          </cell>
+          <cell r="U19">
+            <v>16</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
+            <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
           </cell>
           <cell r="B20" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="C20">
-            <v>206</v>
-          </cell>
-          <cell r="D20">
-            <v>96</v>
+            <v>1910</v>
           </cell>
           <cell r="E20">
-            <v>188</v>
+            <v>1180</v>
           </cell>
           <cell r="F20">
-            <v>114</v>
+            <v>690</v>
           </cell>
           <cell r="G20">
-            <v>0.43</v>
+            <v>1</v>
           </cell>
           <cell r="L20">
-            <v>37.6</v>
+            <v>236</v>
           </cell>
           <cell r="M20">
-            <v>299.60000000000002</v>
+            <v>2378</v>
           </cell>
           <cell r="N20">
-            <v>11</v>
+            <v>13</v>
           </cell>
           <cell r="O20">
-            <v>3.0319148936170213</v>
+            <v>2.9237288135593222</v>
           </cell>
           <cell r="P20">
-            <v>7.2</v>
+            <v>36</v>
           </cell>
           <cell r="Q20">
-            <v>17.2</v>
+            <v>189</v>
           </cell>
           <cell r="R20">
-            <v>20.6</v>
+            <v>108</v>
+          </cell>
+          <cell r="S20" t="str">
+            <v>+600кг для оптовиков</v>
+          </cell>
+          <cell r="T20">
+            <v>2378</v>
+          </cell>
+          <cell r="U20">
+            <v>5</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
+            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
           </cell>
           <cell r="B21" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="C21">
-            <v>295</v>
-          </cell>
-          <cell r="D21">
-            <v>1840</v>
+            <v>778</v>
           </cell>
           <cell r="E21">
-            <v>540</v>
+            <v>242</v>
           </cell>
           <cell r="F21">
-            <v>1580</v>
+            <v>491</v>
           </cell>
           <cell r="G21">
-            <v>1</v>
+            <v>0.9</v>
           </cell>
           <cell r="L21">
-            <v>108</v>
+            <v>48.4</v>
+          </cell>
+          <cell r="M21">
+            <v>138.19999999999993</v>
           </cell>
           <cell r="N21">
-            <v>14.62962962962963</v>
+            <v>12.999999999999998</v>
           </cell>
           <cell r="O21">
-            <v>14.62962962962963</v>
+            <v>10.144628099173554</v>
           </cell>
           <cell r="P21">
-            <v>81</v>
+            <v>43</v>
           </cell>
           <cell r="Q21">
-            <v>36</v>
+            <v>75.8</v>
           </cell>
           <cell r="R21">
-            <v>189</v>
-          </cell>
-          <cell r="S21" t="str">
-            <v>+600кг для оптовиков</v>
+            <v>54.6</v>
+          </cell>
+          <cell r="T21">
+            <v>124.37999999999994</v>
+          </cell>
+          <cell r="U21">
+            <v>8</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
           </cell>
           <cell r="B22" t="str">
             <v>шт</v>
           </cell>
           <cell r="C22">
-            <v>359</v>
+            <v>243</v>
           </cell>
           <cell r="D22">
-            <v>688</v>
+            <v>96</v>
           </cell>
           <cell r="E22">
-            <v>273</v>
+            <v>103</v>
           </cell>
           <cell r="F22">
-            <v>717</v>
+            <v>219</v>
           </cell>
           <cell r="G22">
-            <v>0.9</v>
+            <v>0.43</v>
           </cell>
           <cell r="L22">
-            <v>54.6</v>
+            <v>20.6</v>
+          </cell>
+          <cell r="M22">
+            <v>48.800000000000011</v>
           </cell>
           <cell r="N22">
-            <v>13.131868131868131</v>
+            <v>13</v>
           </cell>
           <cell r="O22">
-            <v>13.131868131868131</v>
+            <v>10.631067961165048</v>
           </cell>
           <cell r="P22">
-            <v>38.200000000000003</v>
+            <v>14.8</v>
           </cell>
           <cell r="Q22">
-            <v>43</v>
+            <v>25</v>
           </cell>
           <cell r="R22">
-            <v>75.8</v>
+            <v>24.2</v>
+          </cell>
+          <cell r="T22">
+            <v>20.984000000000005</v>
+          </cell>
+          <cell r="U22">
+            <v>16</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
+            <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
           </cell>
           <cell r="B23" t="str">
             <v>шт</v>
           </cell>
           <cell r="C23">
-            <v>121</v>
-          </cell>
-          <cell r="D23">
-            <v>224</v>
+            <v>57</v>
           </cell>
           <cell r="E23">
-            <v>121</v>
+            <v>16</v>
           </cell>
           <cell r="F23">
-            <v>212</v>
+            <v>41</v>
           </cell>
           <cell r="G23">
-            <v>0.43</v>
+            <v>0.7</v>
           </cell>
           <cell r="L23">
-            <v>24.2</v>
+            <v>3.2</v>
           </cell>
           <cell r="M23">
-            <v>102.59999999999997</v>
+            <v>0.60000000000000142</v>
           </cell>
           <cell r="N23">
-            <v>12.999999999999998</v>
+            <v>13</v>
           </cell>
           <cell r="O23">
-            <v>8.7603305785123968</v>
+            <v>12.8125</v>
           </cell>
           <cell r="P23">
-            <v>15</v>
+            <v>4.4000000000000004</v>
           </cell>
           <cell r="Q23">
-            <v>14.8</v>
+            <v>6.4</v>
           </cell>
           <cell r="R23">
-            <v>25</v>
+            <v>1.4</v>
+          </cell>
+          <cell r="T23">
+            <v>0.42000000000000098</v>
+          </cell>
+          <cell r="U23">
+            <v>8</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
+            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
           </cell>
           <cell r="B24" t="str">
             <v>шт</v>
           </cell>
           <cell r="C24">
-            <v>25</v>
+            <v>6</v>
           </cell>
           <cell r="D24">
-            <v>56</v>
-          </cell>
-          <cell r="E24">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="F24">
-            <v>57</v>
+            <v>11</v>
           </cell>
           <cell r="G24">
-            <v>0.7</v>
+            <v>0.9</v>
           </cell>
           <cell r="L24">
-            <v>1.4</v>
-          </cell>
-          <cell r="N24">
-            <v>40.714285714285715</v>
-          </cell>
-          <cell r="O24">
-            <v>40.714285714285715</v>
+            <v>0</v>
+          </cell>
+          <cell r="N24" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O24" t="e">
+            <v>#DIV/0!</v>
           </cell>
           <cell r="P24">
-            <v>0.2</v>
+            <v>0.6</v>
           </cell>
           <cell r="Q24">
-            <v>4.4000000000000004</v>
+            <v>0.6</v>
           </cell>
           <cell r="R24">
-            <v>6.4</v>
+            <v>1</v>
+          </cell>
+          <cell r="T24">
+            <v>0</v>
+          </cell>
+          <cell r="U24">
+            <v>8</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
           </cell>
           <cell r="B25" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="C25">
-            <v>8</v>
+            <v>205</v>
+          </cell>
+          <cell r="D25">
+            <v>120</v>
           </cell>
           <cell r="E25">
+            <v>85</v>
+          </cell>
+          <cell r="F25">
+            <v>225</v>
+          </cell>
+          <cell r="G25">
+            <v>1</v>
+          </cell>
+          <cell r="L25">
+            <v>17</v>
+          </cell>
+          <cell r="N25">
+            <v>13.235294117647058</v>
+          </cell>
+          <cell r="O25">
+            <v>13.235294117647058</v>
+          </cell>
+          <cell r="P25">
+            <v>27</v>
+          </cell>
+          <cell r="Q25">
+            <v>13</v>
+          </cell>
+          <cell r="R25">
+            <v>24</v>
+          </cell>
+          <cell r="T25">
+            <v>0</v>
+          </cell>
+          <cell r="U25">
             <v>5</v>
-          </cell>
-          <cell r="F25">
-            <v>3</v>
-          </cell>
-          <cell r="G25">
-            <v>0.9</v>
-          </cell>
-          <cell r="L25">
-            <v>1</v>
-          </cell>
-          <cell r="M25">
-            <v>8</v>
-          </cell>
-          <cell r="N25">
-            <v>11</v>
-          </cell>
-          <cell r="O25">
-            <v>3</v>
-          </cell>
-          <cell r="P25">
-            <v>0.4</v>
-          </cell>
-          <cell r="Q25">
-            <v>0.6</v>
-          </cell>
-          <cell r="R25">
-            <v>0.6</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
+            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
           </cell>
           <cell r="B26" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="C26">
-            <v>325</v>
-          </cell>
-          <cell r="E26">
-            <v>120</v>
+            <v>15</v>
           </cell>
           <cell r="F26">
-            <v>190</v>
+            <v>15</v>
           </cell>
           <cell r="G26">
             <v>1</v>
           </cell>
           <cell r="L26">
-            <v>24</v>
-          </cell>
-          <cell r="M26">
-            <v>122</v>
-          </cell>
-          <cell r="N26">
-            <v>13</v>
-          </cell>
-          <cell r="O26">
-            <v>7.916666666666667</v>
+            <v>0</v>
+          </cell>
+          <cell r="N26" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O26" t="e">
+            <v>#DIV/0!</v>
           </cell>
           <cell r="P26">
-            <v>15</v>
+            <v>0</v>
           </cell>
           <cell r="Q26">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="R26">
-            <v>13</v>
+            <v>1</v>
+          </cell>
+          <cell r="T26">
+            <v>0</v>
+          </cell>
+          <cell r="U26">
+            <v>5</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
+            <v>Снеки  ЖАР-мени ВЕС. рубленые в тесте замор.  ПОКОМ</v>
           </cell>
           <cell r="B27" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="C27">
-            <v>20</v>
+            <v>173.5</v>
           </cell>
           <cell r="E27">
-            <v>5</v>
+            <v>110</v>
           </cell>
           <cell r="F27">
-            <v>15</v>
+            <v>58</v>
           </cell>
           <cell r="G27">
             <v>1</v>
           </cell>
           <cell r="L27">
-            <v>1</v>
+            <v>22</v>
+          </cell>
+          <cell r="M27">
+            <v>228</v>
           </cell>
           <cell r="N27">
-            <v>15</v>
+            <v>13</v>
           </cell>
           <cell r="O27">
-            <v>15</v>
+            <v>2.6363636363636362</v>
           </cell>
           <cell r="P27">
-            <v>1.6</v>
+            <v>22</v>
           </cell>
           <cell r="Q27">
-            <v>0</v>
+            <v>19.7</v>
           </cell>
           <cell r="R27">
-            <v>0</v>
+            <v>16.5</v>
+          </cell>
+          <cell r="T27">
+            <v>228</v>
+          </cell>
+          <cell r="U27">
+            <v>5.5</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Снеки  ЖАР-мени ВЕС. рубленые в тесте замор.  ПОКОМ</v>
+            <v>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</v>
           </cell>
           <cell r="B28" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="C28">
-            <v>234</v>
-          </cell>
-          <cell r="D28">
-            <v>22</v>
-          </cell>
-          <cell r="E28">
-            <v>82.5</v>
+            <v>48</v>
           </cell>
           <cell r="F28">
-            <v>168</v>
+            <v>48</v>
           </cell>
           <cell r="G28">
-            <v>1</v>
+            <v>0.33</v>
           </cell>
           <cell r="L28">
-            <v>16.5</v>
-          </cell>
-          <cell r="M28">
-            <v>46.5</v>
-          </cell>
-          <cell r="N28">
-            <v>13</v>
-          </cell>
-          <cell r="O28">
-            <v>10.181818181818182</v>
+            <v>0</v>
+          </cell>
+          <cell r="N28" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O28" t="e">
+            <v>#DIV/0!</v>
           </cell>
           <cell r="P28">
-            <v>19.8</v>
+            <v>0</v>
           </cell>
           <cell r="Q28">
-            <v>22</v>
+            <v>0</v>
           </cell>
           <cell r="R28">
-            <v>19.7</v>
+            <v>0</v>
+          </cell>
+          <cell r="T28">
+            <v>0</v>
+          </cell>
+          <cell r="U28">
+            <v>6</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</v>
+            <v>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
           </cell>
           <cell r="B29" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="C29">
-            <v>48</v>
+            <v>42</v>
           </cell>
           <cell r="F29">
-            <v>48</v>
+            <v>39</v>
           </cell>
           <cell r="G29">
-            <v>0.33</v>
+            <v>1</v>
           </cell>
           <cell r="L29">
             <v>0</v>
@@ -3257,112 +1963,130 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="P29">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="Q29">
-            <v>0</v>
+            <v>0.6</v>
           </cell>
           <cell r="R29">
-            <v>0</v>
+            <v>1.2</v>
+          </cell>
+          <cell r="T29">
+            <v>0</v>
+          </cell>
+          <cell r="U29">
+            <v>3</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
+            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
           </cell>
           <cell r="B30" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="C30">
-            <v>45</v>
+            <v>276</v>
+          </cell>
+          <cell r="D30">
+            <v>240</v>
           </cell>
           <cell r="E30">
-            <v>6</v>
+            <v>168</v>
           </cell>
           <cell r="F30">
-            <v>39</v>
+            <v>313</v>
           </cell>
           <cell r="G30">
-            <v>1</v>
+            <v>0.25</v>
           </cell>
           <cell r="L30">
-            <v>1.2</v>
+            <v>33.6</v>
+          </cell>
+          <cell r="M30">
+            <v>123.80000000000001</v>
           </cell>
           <cell r="N30">
-            <v>32.5</v>
+            <v>13</v>
           </cell>
           <cell r="O30">
-            <v>32.5</v>
+            <v>9.3154761904761898</v>
           </cell>
           <cell r="P30">
-            <v>1.8</v>
+            <v>28.6</v>
           </cell>
           <cell r="Q30">
-            <v>3</v>
+            <v>30.2</v>
           </cell>
           <cell r="R30">
-            <v>0.6</v>
+            <v>35</v>
+          </cell>
+          <cell r="T30">
+            <v>30.950000000000003</v>
+          </cell>
+          <cell r="U30">
+            <v>12</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
+            <v>Хрустящие крылышки ТМ Горячая штучка 0,3 кг зам  ПОКОМ</v>
           </cell>
           <cell r="B31" t="str">
             <v>шт</v>
           </cell>
           <cell r="C31">
-            <v>292</v>
-          </cell>
-          <cell r="D31">
-            <v>108</v>
-          </cell>
-          <cell r="E31">
-            <v>175</v>
+            <v>5.4</v>
           </cell>
           <cell r="F31">
-            <v>217</v>
+            <v>5.4</v>
           </cell>
           <cell r="G31">
-            <v>0.25</v>
+            <v>0</v>
           </cell>
           <cell r="L31">
-            <v>35</v>
-          </cell>
-          <cell r="M31">
-            <v>238</v>
-          </cell>
-          <cell r="N31">
-            <v>13</v>
-          </cell>
-          <cell r="O31">
-            <v>6.2</v>
+            <v>0</v>
+          </cell>
+          <cell r="N31" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O31" t="e">
+            <v>#DIV/0!</v>
           </cell>
           <cell r="P31">
-            <v>24.6</v>
+            <v>0</v>
           </cell>
           <cell r="Q31">
-            <v>28.6</v>
+            <v>0</v>
           </cell>
           <cell r="R31">
-            <v>30.2</v>
+            <v>0</v>
+          </cell>
+          <cell r="T31">
+            <v>0</v>
+          </cell>
+          <cell r="U31">
+            <v>0</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Хрустящие крылышки ТМ Горячая штучка 0,3 кг зам  ПОКОМ</v>
+            <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
           </cell>
           <cell r="B32" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="C32">
             <v>5.4</v>
           </cell>
+          <cell r="D32">
+            <v>19.8</v>
+          </cell>
           <cell r="F32">
-            <v>5.4</v>
+            <v>25.2</v>
           </cell>
           <cell r="G32">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="L32">
             <v>0</v>
@@ -3374,291 +2098,292 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="P32">
-            <v>0</v>
+            <v>0.36</v>
           </cell>
           <cell r="Q32">
-            <v>0</v>
+            <v>0.36</v>
           </cell>
           <cell r="R32">
             <v>0</v>
+          </cell>
+          <cell r="T32">
+            <v>0</v>
+          </cell>
+          <cell r="U32">
+            <v>1.8</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
+            <v>Чебупай сочное яблоко ТМ Горячая штучка ТС Чебупай 0,2 кг УВС.  зам  ПОКОМ</v>
           </cell>
           <cell r="B33" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="C33">
-            <v>5.4</v>
+            <v>48</v>
+          </cell>
+          <cell r="E33">
+            <v>8</v>
           </cell>
           <cell r="F33">
-            <v>5.4</v>
+            <v>35</v>
           </cell>
           <cell r="G33">
-            <v>1</v>
+            <v>0.2</v>
           </cell>
           <cell r="L33">
-            <v>0</v>
-          </cell>
-          <cell r="M33">
-            <v>20</v>
-          </cell>
-          <cell r="N33" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O33" t="e">
-            <v>#DIV/0!</v>
+            <v>1.6</v>
+          </cell>
+          <cell r="N33">
+            <v>21.875</v>
+          </cell>
+          <cell r="O33">
+            <v>21.875</v>
           </cell>
           <cell r="P33">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="Q33">
-            <v>0.36</v>
+            <v>4.4000000000000004</v>
           </cell>
           <cell r="R33">
-            <v>0.36</v>
+            <v>2.4</v>
+          </cell>
+          <cell r="T33">
+            <v>0</v>
+          </cell>
+          <cell r="U33">
+            <v>6</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Чебупай сочное яблоко ТМ Горячая штучка ТС Чебупай 0,2 кг УВС.  зам  ПОКОМ</v>
+            <v>Чебупай спелая вишня ТМ Горячая штучка ТС Чебупай 0,2 кг УВС. зам  ПОКОМ</v>
           </cell>
           <cell r="B34" t="str">
             <v>шт</v>
           </cell>
           <cell r="C34">
-            <v>55</v>
+            <v>62</v>
           </cell>
           <cell r="E34">
-            <v>12</v>
+            <v>13</v>
           </cell>
           <cell r="F34">
-            <v>43</v>
+            <v>44</v>
           </cell>
           <cell r="G34">
             <v>0.2</v>
           </cell>
           <cell r="L34">
+            <v>2.6</v>
+          </cell>
+          <cell r="N34">
+            <v>16.923076923076923</v>
+          </cell>
+          <cell r="O34">
+            <v>16.923076923076923</v>
+          </cell>
+          <cell r="P34">
+            <v>3.2</v>
+          </cell>
+          <cell r="Q34">
+            <v>5.2</v>
+          </cell>
+          <cell r="R34">
             <v>2.4</v>
           </cell>
-          <cell r="N34">
-            <v>17.916666666666668</v>
-          </cell>
-          <cell r="O34">
-            <v>17.916666666666668</v>
-          </cell>
-          <cell r="P34">
+          <cell r="T34">
+            <v>0</v>
+          </cell>
+          <cell r="U34">
             <v>6</v>
-          </cell>
-          <cell r="Q34">
-            <v>2</v>
-          </cell>
-          <cell r="R34">
-            <v>4.4000000000000004</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Чебупай спелая вишня ТМ Горячая штучка ТС Чебупай 0,2 кг УВС. зам  ПОКОМ</v>
+            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
           </cell>
           <cell r="B35" t="str">
             <v>шт</v>
           </cell>
           <cell r="C35">
-            <v>63</v>
+            <v>480</v>
           </cell>
           <cell r="D35">
-            <v>6</v>
+            <v>12</v>
           </cell>
           <cell r="E35">
+            <v>159</v>
+          </cell>
+          <cell r="F35">
+            <v>295</v>
+          </cell>
+          <cell r="G35">
+            <v>0.25</v>
+          </cell>
+          <cell r="L35">
+            <v>31.8</v>
+          </cell>
+          <cell r="M35">
+            <v>118.40000000000003</v>
+          </cell>
+          <cell r="N35">
+            <v>13</v>
+          </cell>
+          <cell r="O35">
+            <v>9.2767295597484267</v>
+          </cell>
+          <cell r="P35">
+            <v>49.6</v>
+          </cell>
+          <cell r="Q35">
+            <v>41.8</v>
+          </cell>
+          <cell r="R35">
+            <v>34.200000000000003</v>
+          </cell>
+          <cell r="T35">
+            <v>29.600000000000009</v>
+          </cell>
+          <cell r="U35">
             <v>12</v>
-          </cell>
-          <cell r="F35">
-            <v>57</v>
-          </cell>
-          <cell r="G35">
-            <v>0.2</v>
-          </cell>
-          <cell r="L35">
-            <v>2.4</v>
-          </cell>
-          <cell r="N35">
-            <v>23.75</v>
-          </cell>
-          <cell r="O35">
-            <v>23.75</v>
-          </cell>
-          <cell r="P35">
-            <v>7</v>
-          </cell>
-          <cell r="Q35">
-            <v>3.2</v>
-          </cell>
-          <cell r="R35">
-            <v>5.2</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
+            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
           </cell>
           <cell r="B36" t="str">
             <v>шт</v>
           </cell>
           <cell r="C36">
-            <v>620</v>
+            <v>406</v>
+          </cell>
+          <cell r="D36">
+            <v>84</v>
           </cell>
           <cell r="E36">
-            <v>171</v>
+            <v>172</v>
           </cell>
           <cell r="F36">
-            <v>430</v>
+            <v>286</v>
           </cell>
           <cell r="G36">
             <v>0.25</v>
           </cell>
           <cell r="L36">
-            <v>34.200000000000003</v>
+            <v>34.4</v>
           </cell>
           <cell r="M36">
-            <v>14.600000000000023</v>
+            <v>161.19999999999999</v>
           </cell>
           <cell r="N36">
             <v>13</v>
           </cell>
           <cell r="O36">
-            <v>12.573099415204677</v>
+            <v>8.3139534883720927</v>
           </cell>
           <cell r="P36">
-            <v>26</v>
+            <v>32.200000000000003</v>
           </cell>
           <cell r="Q36">
-            <v>49.6</v>
+            <v>40.6</v>
           </cell>
           <cell r="R36">
-            <v>41.8</v>
+            <v>34</v>
+          </cell>
+          <cell r="T36">
+            <v>40.299999999999997</v>
+          </cell>
+          <cell r="U36">
+            <v>12</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
+            <v>Чебуреки Мясные вес 2,7 кг Кулинарные изделия мясосодержащие рубленые в тесте жарен  ПОКОМ</v>
           </cell>
           <cell r="B37" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="C37">
-            <v>285</v>
-          </cell>
-          <cell r="D37">
-            <v>264</v>
-          </cell>
-          <cell r="E37">
-            <v>170</v>
+            <v>2.7</v>
           </cell>
           <cell r="F37">
-            <v>362</v>
+            <v>2.7</v>
           </cell>
           <cell r="G37">
-            <v>0.25</v>
+            <v>1</v>
           </cell>
           <cell r="L37">
-            <v>34</v>
+            <v>0</v>
           </cell>
           <cell r="M37">
-            <v>80</v>
-          </cell>
-          <cell r="N37">
-            <v>13</v>
-          </cell>
-          <cell r="O37">
-            <v>10.647058823529411</v>
+            <v>50</v>
+          </cell>
+          <cell r="N37" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O37" t="e">
+            <v>#DIV/0!</v>
           </cell>
           <cell r="P37">
-            <v>27.6</v>
+            <v>0</v>
           </cell>
           <cell r="Q37">
-            <v>32.200000000000003</v>
+            <v>2.7</v>
           </cell>
           <cell r="R37">
-            <v>40.6</v>
+            <v>9.18</v>
+          </cell>
+          <cell r="T37">
+            <v>50</v>
+          </cell>
+          <cell r="U37">
+            <v>2.7</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Чебуреки Мясные вес 2,7 кг Кулинарные изделия мясосодержащие рубленые в тесте жарен  ПОКОМ</v>
+            <v>Чебуреки сочные, ВЕС, куриные жарен. зам  ПОКОМ</v>
           </cell>
           <cell r="B38" t="str">
             <v>кг</v>
           </cell>
           <cell r="C38">
-            <v>70.2</v>
-          </cell>
-          <cell r="E38">
-            <v>45.9</v>
+            <v>70</v>
           </cell>
           <cell r="F38">
-            <v>2.7</v>
+            <v>65</v>
           </cell>
           <cell r="G38">
             <v>1</v>
           </cell>
           <cell r="L38">
-            <v>9.18</v>
-          </cell>
-          <cell r="M38">
-            <v>70.739999999999995</v>
-          </cell>
-          <cell r="N38">
-            <v>8</v>
-          </cell>
-          <cell r="O38">
-            <v>0.29411764705882354</v>
+            <v>0</v>
+          </cell>
+          <cell r="N38" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O38" t="e">
+            <v>#DIV/0!</v>
           </cell>
           <cell r="P38">
-            <v>2.16</v>
+            <v>32</v>
           </cell>
           <cell r="Q38">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="R38">
-            <v>2.7</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Чебуреки сочные, ВЕС, куриные жарен. зам  ПОКОМ</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C39">
-            <v>70</v>
-          </cell>
-          <cell r="F39">
-            <v>70</v>
-          </cell>
-          <cell r="G39">
-            <v>1</v>
-          </cell>
-          <cell r="L39">
-            <v>0</v>
-          </cell>
-          <cell r="N39" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="O39" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="P39">
-            <v>0</v>
-          </cell>
-          <cell r="Q39">
-            <v>32</v>
-          </cell>
-          <cell r="R39">
-            <v>2</v>
+            <v>0</v>
+          </cell>
+          <cell r="T38">
+            <v>0</v>
+          </cell>
+          <cell r="U38">
+            <v>5</v>
           </cell>
         </row>
       </sheetData>
@@ -3674,10 +2399,10 @@
       <sheetName val="TDSheet"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
-            <v>Период: 29.09.2023 - 06.10.2023</v>
+            <v>Период: 15.09.2023 - 22.09.2023</v>
           </cell>
         </row>
         <row r="3">
@@ -3685,7 +2410,49 @@
             <v>Номенклатура</v>
           </cell>
           <cell r="B3" t="str">
-            <v>АКЦИИ</v>
+            <v>Ед. изм.</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Количество</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>крат</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>заяв</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>раз</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>заказ</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>заказ</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>заказ</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>кон ост</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>ост без заказа</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>ср 30,08</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>ср 06,09</v>
+          </cell>
+          <cell r="R3" t="str">
+            <v>ср 14,09</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>коментарий</v>
           </cell>
         </row>
         <row r="4">
@@ -3693,7 +2460,54 @@
             <v>Номенклатура</v>
           </cell>
           <cell r="B4" t="str">
-            <v>АКЦИИ</v>
+            <v>Ед. изм.</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Начальный остаток</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Приход</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Расход</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>Конечный остаток</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>3365.5</v>
+          </cell>
+          <cell r="F5">
+            <v>7397.9999999999991</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>673.1</v>
+          </cell>
+          <cell r="M5">
+            <v>1925.4999999999998</v>
+          </cell>
+          <cell r="P5">
+            <v>461.43600000000004</v>
+          </cell>
+          <cell r="Q5">
+            <v>572.5200000000001</v>
+          </cell>
+          <cell r="R5">
+            <v>798.70000000000016</v>
           </cell>
         </row>
         <row r="6">
@@ -3701,7 +2515,40 @@
             <v>Готовые чебупели с ветчиной и сыром Горячая штучка 0,3кг зам  ПОКОМ</v>
           </cell>
           <cell r="B6" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C6">
+            <v>478</v>
+          </cell>
+          <cell r="E6">
+            <v>145</v>
+          </cell>
+          <cell r="F6">
+            <v>322</v>
+          </cell>
+          <cell r="G6">
+            <v>0.3</v>
+          </cell>
+          <cell r="L6">
+            <v>29</v>
+          </cell>
+          <cell r="M6">
+            <v>55</v>
+          </cell>
+          <cell r="N6">
+            <v>13</v>
+          </cell>
+          <cell r="O6">
+            <v>11.103448275862069</v>
+          </cell>
+          <cell r="P6">
+            <v>21.2</v>
+          </cell>
+          <cell r="Q6">
+            <v>38.4</v>
+          </cell>
+          <cell r="R6">
+            <v>33.200000000000003</v>
           </cell>
         </row>
         <row r="7">
@@ -3709,68 +2556,482 @@
             <v>Готовые чебупели сочные с мясом ТМ Горячая штучка  0,3кг зам  ПОКОМ</v>
           </cell>
           <cell r="B7" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C7">
+            <v>347</v>
+          </cell>
+          <cell r="D7">
+            <v>216</v>
+          </cell>
+          <cell r="E7">
+            <v>241</v>
+          </cell>
+          <cell r="F7">
+            <v>303</v>
+          </cell>
+          <cell r="G7">
+            <v>0.3</v>
+          </cell>
+          <cell r="L7">
+            <v>48.2</v>
+          </cell>
+          <cell r="M7">
+            <v>323.60000000000002</v>
+          </cell>
+          <cell r="N7">
+            <v>13</v>
+          </cell>
+          <cell r="O7">
+            <v>6.2863070539419086</v>
+          </cell>
+          <cell r="P7">
+            <v>29</v>
+          </cell>
+          <cell r="Q7">
+            <v>35.6</v>
+          </cell>
+          <cell r="R7">
+            <v>41.4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
             <v>Готовые чебуреки Сочный мегачебурек.Готовые жареные.ВЕС  ПОКОМ</v>
           </cell>
+          <cell r="B8" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="D8">
+            <v>100.8</v>
+          </cell>
+          <cell r="F8">
+            <v>100.8</v>
+          </cell>
+          <cell r="G8">
+            <v>1</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
+          <cell r="N8" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O8" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="P8">
+            <v>0.89600000000000013</v>
+          </cell>
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+          <cell r="R8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
             <v>Жар-ладушки с клубникой и вишней. Жареные с начинкой.ВЕС  ПОКОМ</v>
           </cell>
+          <cell r="B9" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C9">
+            <v>84.5</v>
+          </cell>
+          <cell r="E9">
+            <v>29.6</v>
+          </cell>
+          <cell r="F9">
+            <v>54.9</v>
+          </cell>
+          <cell r="G9">
+            <v>1</v>
+          </cell>
+          <cell r="L9">
+            <v>5.92</v>
+          </cell>
+          <cell r="M9">
+            <v>22.059999999999995</v>
+          </cell>
+          <cell r="N9">
+            <v>12.999999999999998</v>
+          </cell>
+          <cell r="O9">
+            <v>9.2736486486486491</v>
+          </cell>
+          <cell r="P9">
+            <v>0</v>
+          </cell>
+          <cell r="Q9">
+            <v>2.96</v>
+          </cell>
+          <cell r="R9">
+            <v>4.7</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
             <v>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы 0,25 кг зам  ПОКОМ</v>
           </cell>
+          <cell r="B10" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C10">
+            <v>175</v>
+          </cell>
+          <cell r="E10">
+            <v>48</v>
+          </cell>
+          <cell r="F10">
+            <v>121</v>
+          </cell>
+          <cell r="G10">
+            <v>0.25</v>
+          </cell>
+          <cell r="L10">
+            <v>9.6</v>
+          </cell>
+          <cell r="M10">
+            <v>3.7999999999999972</v>
+          </cell>
+          <cell r="N10">
+            <v>13</v>
+          </cell>
+          <cell r="O10">
+            <v>12.604166666666668</v>
+          </cell>
+          <cell r="P10">
+            <v>10.6</v>
+          </cell>
+          <cell r="Q10">
+            <v>13</v>
+          </cell>
+          <cell r="R10">
+            <v>5.8</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
             <v>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</v>
           </cell>
+          <cell r="B11" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C11">
+            <v>163.69999999999999</v>
+          </cell>
+          <cell r="E11">
+            <v>39.6</v>
+          </cell>
+          <cell r="F11">
+            <v>118.7</v>
+          </cell>
+          <cell r="G11">
+            <v>1</v>
+          </cell>
+          <cell r="L11">
+            <v>7.92</v>
+          </cell>
+          <cell r="N11">
+            <v>14.987373737373737</v>
+          </cell>
+          <cell r="O11">
+            <v>14.987373737373737</v>
+          </cell>
+          <cell r="P11">
+            <v>0.36</v>
+          </cell>
+          <cell r="Q11">
+            <v>3.6</v>
+          </cell>
+          <cell r="R11">
+            <v>2.16</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС,  ПОКОМ</v>
           </cell>
+          <cell r="B12" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C12">
+            <v>33.1</v>
+          </cell>
+          <cell r="D12">
+            <v>107.3</v>
+          </cell>
+          <cell r="E12">
+            <v>25.9</v>
+          </cell>
+          <cell r="F12">
+            <v>107.1</v>
+          </cell>
+          <cell r="G12">
+            <v>1</v>
+          </cell>
+          <cell r="L12">
+            <v>5.18</v>
+          </cell>
+          <cell r="N12">
+            <v>20.675675675675677</v>
+          </cell>
+          <cell r="O12">
+            <v>20.675675675675677</v>
+          </cell>
+          <cell r="P12">
+            <v>16.22</v>
+          </cell>
+          <cell r="Q12">
+            <v>14.8</v>
+          </cell>
+          <cell r="R12">
+            <v>16.28</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
             <v>Наггетсы из печи 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки замор.  ПОКОМ</v>
           </cell>
+          <cell r="B13" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C13">
+            <v>-2</v>
+          </cell>
+          <cell r="D13">
+            <v>2</v>
+          </cell>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
+          <cell r="L13">
+            <v>0</v>
+          </cell>
+          <cell r="N13" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O13" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="P13">
+            <v>0.4</v>
+          </cell>
+          <cell r="Q13">
+            <v>0</v>
+          </cell>
+          <cell r="R13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
             <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
           </cell>
           <cell r="B14" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C14">
+            <v>260</v>
+          </cell>
+          <cell r="D14">
+            <v>444</v>
+          </cell>
+          <cell r="E14">
+            <v>238</v>
+          </cell>
+          <cell r="F14">
+            <v>425</v>
+          </cell>
+          <cell r="G14">
+            <v>0.25</v>
+          </cell>
+          <cell r="L14">
+            <v>47.6</v>
+          </cell>
+          <cell r="M14">
+            <v>193.80000000000007</v>
+          </cell>
+          <cell r="N14">
+            <v>13.000000000000002</v>
+          </cell>
+          <cell r="O14">
+            <v>8.9285714285714288</v>
+          </cell>
+          <cell r="P14">
+            <v>31.8</v>
+          </cell>
+          <cell r="Q14">
+            <v>35.200000000000003</v>
+          </cell>
+          <cell r="R14">
+            <v>52.6</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
             <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
           </cell>
+          <cell r="B15" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C15">
+            <v>461</v>
+          </cell>
+          <cell r="D15">
+            <v>432</v>
+          </cell>
+          <cell r="E15">
+            <v>274</v>
+          </cell>
+          <cell r="F15">
+            <v>576</v>
+          </cell>
+          <cell r="G15">
+            <v>0.25</v>
+          </cell>
+          <cell r="L15">
+            <v>54.8</v>
+          </cell>
+          <cell r="M15">
+            <v>136.39999999999998</v>
+          </cell>
+          <cell r="N15">
+            <v>13</v>
+          </cell>
+          <cell r="O15">
+            <v>10.51094890510949</v>
+          </cell>
+          <cell r="P15">
+            <v>35.4</v>
+          </cell>
+          <cell r="Q15">
+            <v>49.6</v>
+          </cell>
+          <cell r="R15">
+            <v>66</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
           </cell>
+          <cell r="B16" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C16">
+            <v>147</v>
+          </cell>
+          <cell r="E16">
+            <v>18</v>
+          </cell>
+          <cell r="F16">
+            <v>123</v>
+          </cell>
+          <cell r="G16">
+            <v>1</v>
+          </cell>
+          <cell r="L16">
+            <v>3.6</v>
+          </cell>
+          <cell r="N16">
+            <v>34.166666666666664</v>
+          </cell>
+          <cell r="O16">
+            <v>34.166666666666664</v>
+          </cell>
+          <cell r="P16">
+            <v>15.6</v>
+          </cell>
+          <cell r="Q16">
+            <v>9.6</v>
+          </cell>
+          <cell r="R16">
+            <v>8.4</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>Пельмени Grandmeni со сливочным маслом Горячая штучка 0,75 кг ПОКОМ</v>
           </cell>
+          <cell r="B17" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C17">
+            <v>16</v>
+          </cell>
+          <cell r="E17">
+            <v>5</v>
+          </cell>
+          <cell r="F17">
+            <v>8</v>
+          </cell>
+          <cell r="G17">
+            <v>0.75</v>
+          </cell>
+          <cell r="L17">
+            <v>1</v>
+          </cell>
+          <cell r="M17">
+            <v>5</v>
+          </cell>
+          <cell r="N17">
+            <v>13</v>
+          </cell>
+          <cell r="O17">
+            <v>8</v>
+          </cell>
+          <cell r="P17">
+            <v>0</v>
+          </cell>
+          <cell r="Q17">
+            <v>1</v>
+          </cell>
+          <cell r="R17">
+            <v>0</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
             <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
           </cell>
           <cell r="B18" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C18">
+            <v>94</v>
+          </cell>
+          <cell r="D18">
+            <v>112</v>
+          </cell>
+          <cell r="E18">
+            <v>45</v>
+          </cell>
+          <cell r="F18">
+            <v>147</v>
+          </cell>
+          <cell r="G18">
+            <v>0.9</v>
+          </cell>
+          <cell r="L18">
+            <v>9</v>
+          </cell>
+          <cell r="N18">
+            <v>16.333333333333332</v>
+          </cell>
+          <cell r="O18">
+            <v>16.333333333333332</v>
+          </cell>
+          <cell r="P18">
+            <v>13.2</v>
+          </cell>
+          <cell r="Q18">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="R18">
+            <v>15.6</v>
           </cell>
         </row>
         <row r="19">
@@ -3778,112 +3039,851 @@
             <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
           </cell>
           <cell r="B19" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C19">
+            <v>455</v>
+          </cell>
+          <cell r="D19">
+            <v>568</v>
+          </cell>
+          <cell r="E19">
+            <v>323</v>
+          </cell>
+          <cell r="F19">
+            <v>656</v>
+          </cell>
+          <cell r="G19">
+            <v>0.9</v>
+          </cell>
+          <cell r="L19">
+            <v>64.599999999999994</v>
+          </cell>
+          <cell r="M19">
+            <v>183.79999999999995</v>
+          </cell>
+          <cell r="N19">
+            <v>13</v>
+          </cell>
+          <cell r="O19">
+            <v>10.154798761609907</v>
+          </cell>
+          <cell r="P19">
+            <v>13.2</v>
+          </cell>
+          <cell r="Q19">
+            <v>48.2</v>
+          </cell>
+          <cell r="R19">
+            <v>74.599999999999994</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
             <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
           </cell>
+          <cell r="B20" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C20">
+            <v>206</v>
+          </cell>
+          <cell r="D20">
+            <v>96</v>
+          </cell>
+          <cell r="E20">
+            <v>188</v>
+          </cell>
+          <cell r="F20">
+            <v>114</v>
+          </cell>
+          <cell r="G20">
+            <v>0.43</v>
+          </cell>
+          <cell r="L20">
+            <v>37.6</v>
+          </cell>
+          <cell r="M20">
+            <v>299.60000000000002</v>
+          </cell>
+          <cell r="N20">
+            <v>11</v>
+          </cell>
+          <cell r="O20">
+            <v>3.0319148936170213</v>
+          </cell>
+          <cell r="P20">
+            <v>7.2</v>
+          </cell>
+          <cell r="Q20">
+            <v>17.2</v>
+          </cell>
+          <cell r="R20">
+            <v>20.6</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
             <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
           </cell>
+          <cell r="B21" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C21">
+            <v>295</v>
+          </cell>
+          <cell r="D21">
+            <v>1840</v>
+          </cell>
+          <cell r="E21">
+            <v>540</v>
+          </cell>
+          <cell r="F21">
+            <v>1580</v>
+          </cell>
+          <cell r="G21">
+            <v>1</v>
+          </cell>
+          <cell r="L21">
+            <v>108</v>
+          </cell>
+          <cell r="N21">
+            <v>14.62962962962963</v>
+          </cell>
+          <cell r="O21">
+            <v>14.62962962962963</v>
+          </cell>
+          <cell r="P21">
+            <v>81</v>
+          </cell>
+          <cell r="Q21">
+            <v>36</v>
+          </cell>
+          <cell r="R21">
+            <v>189</v>
+          </cell>
+          <cell r="S21" t="str">
+            <v>+600кг для оптовиков</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
           </cell>
           <cell r="B22" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C22">
+            <v>359</v>
+          </cell>
+          <cell r="D22">
+            <v>688</v>
+          </cell>
+          <cell r="E22">
+            <v>273</v>
+          </cell>
+          <cell r="F22">
+            <v>717</v>
+          </cell>
+          <cell r="G22">
+            <v>0.9</v>
+          </cell>
+          <cell r="L22">
+            <v>54.6</v>
+          </cell>
+          <cell r="N22">
+            <v>13.131868131868131</v>
+          </cell>
+          <cell r="O22">
+            <v>13.131868131868131</v>
+          </cell>
+          <cell r="P22">
+            <v>38.200000000000003</v>
+          </cell>
+          <cell r="Q22">
+            <v>43</v>
+          </cell>
+          <cell r="R22">
+            <v>75.8</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
             <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
           </cell>
+          <cell r="B23" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C23">
+            <v>121</v>
+          </cell>
+          <cell r="D23">
+            <v>224</v>
+          </cell>
+          <cell r="E23">
+            <v>121</v>
+          </cell>
+          <cell r="F23">
+            <v>212</v>
+          </cell>
+          <cell r="G23">
+            <v>0.43</v>
+          </cell>
+          <cell r="L23">
+            <v>24.2</v>
+          </cell>
+          <cell r="M23">
+            <v>102.59999999999997</v>
+          </cell>
+          <cell r="N23">
+            <v>12.999999999999998</v>
+          </cell>
+          <cell r="O23">
+            <v>8.7603305785123968</v>
+          </cell>
+          <cell r="P23">
+            <v>15</v>
+          </cell>
+          <cell r="Q23">
+            <v>14.8</v>
+          </cell>
+          <cell r="R23">
+            <v>25</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
             <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
           </cell>
           <cell r="B24" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C24">
+            <v>25</v>
+          </cell>
+          <cell r="D24">
+            <v>56</v>
+          </cell>
+          <cell r="E24">
+            <v>7</v>
+          </cell>
+          <cell r="F24">
+            <v>57</v>
+          </cell>
+          <cell r="G24">
+            <v>0.7</v>
+          </cell>
+          <cell r="L24">
+            <v>1.4</v>
+          </cell>
+          <cell r="N24">
+            <v>40.714285714285715</v>
+          </cell>
+          <cell r="O24">
+            <v>40.714285714285715</v>
+          </cell>
+          <cell r="P24">
+            <v>0.2</v>
+          </cell>
+          <cell r="Q24">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="R24">
+            <v>6.4</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
             <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
           </cell>
+          <cell r="B25" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C25">
+            <v>8</v>
+          </cell>
+          <cell r="E25">
+            <v>5</v>
+          </cell>
+          <cell r="F25">
+            <v>3</v>
+          </cell>
+          <cell r="G25">
+            <v>0.9</v>
+          </cell>
+          <cell r="L25">
+            <v>1</v>
+          </cell>
+          <cell r="M25">
+            <v>8</v>
+          </cell>
+          <cell r="N25">
+            <v>11</v>
+          </cell>
+          <cell r="O25">
+            <v>3</v>
+          </cell>
+          <cell r="P25">
+            <v>0.4</v>
+          </cell>
+          <cell r="Q25">
+            <v>0.6</v>
+          </cell>
+          <cell r="R25">
+            <v>0.6</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Пельмени Отборные с говядиной 0,9 кг НОВА ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
           </cell>
           <cell r="B26" t="str">
-            <v>Окт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C26">
+            <v>325</v>
+          </cell>
+          <cell r="E26">
+            <v>120</v>
+          </cell>
+          <cell r="F26">
+            <v>190</v>
+          </cell>
+          <cell r="G26">
+            <v>1</v>
+          </cell>
+          <cell r="L26">
+            <v>24</v>
+          </cell>
+          <cell r="M26">
+            <v>122</v>
+          </cell>
+          <cell r="N26">
+            <v>13</v>
+          </cell>
+          <cell r="O26">
+            <v>7.916666666666667</v>
+          </cell>
+          <cell r="P26">
+            <v>15</v>
+          </cell>
+          <cell r="Q26">
+            <v>27</v>
+          </cell>
+          <cell r="R26">
+            <v>13</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
+            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C27">
+            <v>20</v>
+          </cell>
+          <cell r="E27">
+            <v>5</v>
+          </cell>
+          <cell r="F27">
+            <v>15</v>
+          </cell>
+          <cell r="G27">
+            <v>1</v>
+          </cell>
+          <cell r="L27">
+            <v>1</v>
+          </cell>
+          <cell r="N27">
+            <v>15</v>
+          </cell>
+          <cell r="O27">
+            <v>15</v>
+          </cell>
+          <cell r="P27">
+            <v>1.6</v>
+          </cell>
+          <cell r="Q27">
+            <v>0</v>
+          </cell>
+          <cell r="R27">
+            <v>0</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
+            <v>Снеки  ЖАР-мени ВЕС. рубленые в тесте замор.  ПОКОМ</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C28">
+            <v>234</v>
+          </cell>
+          <cell r="D28">
+            <v>22</v>
+          </cell>
+          <cell r="E28">
+            <v>82.5</v>
+          </cell>
+          <cell r="F28">
+            <v>168</v>
+          </cell>
+          <cell r="G28">
+            <v>1</v>
+          </cell>
+          <cell r="L28">
+            <v>16.5</v>
+          </cell>
+          <cell r="M28">
+            <v>46.5</v>
+          </cell>
+          <cell r="N28">
+            <v>13</v>
+          </cell>
+          <cell r="O28">
+            <v>10.181818181818182</v>
+          </cell>
+          <cell r="P28">
+            <v>19.8</v>
+          </cell>
+          <cell r="Q28">
+            <v>22</v>
+          </cell>
+          <cell r="R28">
+            <v>19.7</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Снеки  ЖАР-мени ВЕС. рубленые в тесте замор.  ПОКОМ</v>
+            <v>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C29">
+            <v>48</v>
+          </cell>
+          <cell r="F29">
+            <v>48</v>
+          </cell>
+          <cell r="G29">
+            <v>0.33</v>
+          </cell>
+          <cell r="L29">
+            <v>0</v>
+          </cell>
+          <cell r="N29" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O29" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="P29">
+            <v>0</v>
+          </cell>
+          <cell r="Q29">
+            <v>0</v>
+          </cell>
+          <cell r="R29">
+            <v>0</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</v>
+            <v>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C30">
+            <v>45</v>
+          </cell>
+          <cell r="E30">
+            <v>6</v>
+          </cell>
+          <cell r="F30">
+            <v>39</v>
+          </cell>
+          <cell r="G30">
+            <v>1</v>
+          </cell>
+          <cell r="L30">
+            <v>1.2</v>
+          </cell>
+          <cell r="N30">
+            <v>32.5</v>
+          </cell>
+          <cell r="O30">
+            <v>32.5</v>
+          </cell>
+          <cell r="P30">
+            <v>1.8</v>
+          </cell>
+          <cell r="Q30">
+            <v>3</v>
+          </cell>
+          <cell r="R30">
+            <v>0.6</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
+            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C31">
+            <v>292</v>
+          </cell>
+          <cell r="D31">
+            <v>108</v>
+          </cell>
+          <cell r="E31">
+            <v>175</v>
+          </cell>
+          <cell r="F31">
+            <v>217</v>
+          </cell>
+          <cell r="G31">
+            <v>0.25</v>
+          </cell>
+          <cell r="L31">
+            <v>35</v>
+          </cell>
+          <cell r="M31">
+            <v>238</v>
+          </cell>
+          <cell r="N31">
+            <v>13</v>
+          </cell>
+          <cell r="O31">
+            <v>6.2</v>
+          </cell>
+          <cell r="P31">
+            <v>24.6</v>
+          </cell>
+          <cell r="Q31">
+            <v>28.6</v>
+          </cell>
+          <cell r="R31">
+            <v>30.2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
+            <v>Хрустящие крылышки ТМ Горячая штучка 0,3 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C32">
+            <v>5.4</v>
+          </cell>
+          <cell r="F32">
+            <v>5.4</v>
+          </cell>
+          <cell r="G32">
+            <v>0</v>
+          </cell>
+          <cell r="L32">
+            <v>0</v>
+          </cell>
+          <cell r="N32" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O32" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="P32">
+            <v>0</v>
+          </cell>
+          <cell r="Q32">
+            <v>0</v>
+          </cell>
+          <cell r="R32">
+            <v>0</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
             <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
           </cell>
+          <cell r="B33" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C33">
+            <v>5.4</v>
+          </cell>
+          <cell r="F33">
+            <v>5.4</v>
+          </cell>
+          <cell r="G33">
+            <v>1</v>
+          </cell>
+          <cell r="L33">
+            <v>0</v>
+          </cell>
+          <cell r="M33">
+            <v>20</v>
+          </cell>
+          <cell r="N33" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O33" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="P33">
+            <v>0</v>
+          </cell>
+          <cell r="Q33">
+            <v>0.36</v>
+          </cell>
+          <cell r="R33">
+            <v>0.36</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
+            <v>Чебупай сочное яблоко ТМ Горячая штучка ТС Чебупай 0,2 кг УВС.  зам  ПОКОМ</v>
           </cell>
           <cell r="B34" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C34">
+            <v>55</v>
+          </cell>
+          <cell r="E34">
+            <v>12</v>
+          </cell>
+          <cell r="F34">
+            <v>43</v>
+          </cell>
+          <cell r="G34">
+            <v>0.2</v>
+          </cell>
+          <cell r="L34">
+            <v>2.4</v>
+          </cell>
+          <cell r="N34">
+            <v>17.916666666666668</v>
+          </cell>
+          <cell r="O34">
+            <v>17.916666666666668</v>
+          </cell>
+          <cell r="P34">
+            <v>6</v>
+          </cell>
+          <cell r="Q34">
+            <v>2</v>
+          </cell>
+          <cell r="R34">
+            <v>4.4000000000000004</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
+            <v>Чебупай спелая вишня ТМ Горячая штучка ТС Чебупай 0,2 кг УВС. зам  ПОКОМ</v>
           </cell>
           <cell r="B35" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C35">
+            <v>63</v>
+          </cell>
+          <cell r="D35">
+            <v>6</v>
+          </cell>
+          <cell r="E35">
+            <v>12</v>
+          </cell>
+          <cell r="F35">
+            <v>57</v>
+          </cell>
+          <cell r="G35">
+            <v>0.2</v>
+          </cell>
+          <cell r="L35">
+            <v>2.4</v>
+          </cell>
+          <cell r="N35">
+            <v>23.75</v>
+          </cell>
+          <cell r="O35">
+            <v>23.75</v>
+          </cell>
+          <cell r="P35">
+            <v>7</v>
+          </cell>
+          <cell r="Q35">
+            <v>3.2</v>
+          </cell>
+          <cell r="R35">
+            <v>5.2</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Чебуреки сочные, ВЕС, куриные жарен. зам  ПОКОМ</v>
+            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C36">
+            <v>620</v>
+          </cell>
+          <cell r="E36">
+            <v>171</v>
+          </cell>
+          <cell r="F36">
+            <v>430</v>
+          </cell>
+          <cell r="G36">
+            <v>0.25</v>
+          </cell>
+          <cell r="L36">
+            <v>34.200000000000003</v>
+          </cell>
+          <cell r="M36">
+            <v>14.600000000000023</v>
+          </cell>
+          <cell r="N36">
+            <v>13</v>
+          </cell>
+          <cell r="O36">
+            <v>12.573099415204677</v>
+          </cell>
+          <cell r="P36">
+            <v>26</v>
+          </cell>
+          <cell r="Q36">
+            <v>49.6</v>
+          </cell>
+          <cell r="R36">
+            <v>41.8</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>БОНУС_Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C37">
+            <v>285</v>
+          </cell>
+          <cell r="D37">
+            <v>264</v>
+          </cell>
+          <cell r="E37">
+            <v>170</v>
+          </cell>
+          <cell r="F37">
+            <v>362</v>
+          </cell>
+          <cell r="G37">
+            <v>0.25</v>
+          </cell>
+          <cell r="L37">
+            <v>34</v>
+          </cell>
+          <cell r="M37">
+            <v>80</v>
+          </cell>
+          <cell r="N37">
+            <v>13</v>
+          </cell>
+          <cell r="O37">
+            <v>10.647058823529411</v>
+          </cell>
+          <cell r="P37">
+            <v>27.6</v>
+          </cell>
+          <cell r="Q37">
+            <v>32.200000000000003</v>
+          </cell>
+          <cell r="R37">
+            <v>40.6</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Чебуреки Мясные вес 2,7 кг Кулинарные изделия мясосодержащие рубленые в тесте жарен  ПОКОМ</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C38">
+            <v>70.2</v>
+          </cell>
+          <cell r="E38">
+            <v>45.9</v>
+          </cell>
+          <cell r="F38">
+            <v>2.7</v>
+          </cell>
+          <cell r="G38">
+            <v>1</v>
+          </cell>
+          <cell r="L38">
+            <v>9.18</v>
+          </cell>
+          <cell r="M38">
+            <v>70.739999999999995</v>
+          </cell>
+          <cell r="N38">
+            <v>8</v>
+          </cell>
+          <cell r="O38">
+            <v>0.29411764705882354</v>
+          </cell>
+          <cell r="P38">
+            <v>2.16</v>
+          </cell>
+          <cell r="Q38">
+            <v>0</v>
+          </cell>
+          <cell r="R38">
+            <v>2.7</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Чебуреки сочные, ВЕС, куриные жарен. зам  ПОКОМ</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C39">
+            <v>70</v>
+          </cell>
+          <cell r="F39">
+            <v>70</v>
+          </cell>
+          <cell r="G39">
+            <v>1</v>
+          </cell>
+          <cell r="L39">
+            <v>0</v>
+          </cell>
+          <cell r="N39" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="O39" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="P39">
+            <v>0</v>
+          </cell>
+          <cell r="Q39">
+            <v>32</v>
+          </cell>
+          <cell r="R39">
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -4219,8 +4219,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -4457,7 +4457,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="34" t="str">
-        <f>VLOOKUP(A6,[3]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A6,[1]TDSheet!$A:$B,2,0)</f>
         <v>Окт</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4476,7 +4476,7 @@
         <v>217</v>
       </c>
       <c r="H6" s="17">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.3</v>
       </c>
       <c r="M6" s="2">
@@ -4500,15 +4500,15 @@
         <v>6.5361445783132526</v>
       </c>
       <c r="R6" s="2">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$Q,17,0)</f>
         <v>33.200000000000003</v>
       </c>
       <c r="S6" s="2">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$R,18,0)</f>
         <v>29</v>
       </c>
       <c r="T6" s="2">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$L,12,0)</f>
         <v>33.6</v>
       </c>
       <c r="V6" s="2">
@@ -4516,7 +4516,7 @@
         <v>64.38000000000001</v>
       </c>
       <c r="W6" s="17">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$U,21,0)</f>
         <v>12</v>
       </c>
       <c r="X6" s="18">
@@ -4536,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="34" t="str">
-        <f>VLOOKUP(A7,[3]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A7,[1]TDSheet!$A:$B,2,0)</f>
         <v>Окт</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -4556,7 +4556,7 @@
         <v>324</v>
       </c>
       <c r="H7" s="17">
-        <f>VLOOKUP(A7,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.3</v>
       </c>
       <c r="M7" s="2">
@@ -4580,15 +4580,15 @@
         <v>6.9827586206896557</v>
       </c>
       <c r="R7" s="2">
-        <f>VLOOKUP(A7,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$Q,17,0)</f>
         <v>41.4</v>
       </c>
       <c r="S7" s="2">
-        <f>VLOOKUP(A7,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$R,18,0)</f>
         <v>48.2</v>
       </c>
       <c r="T7" s="2">
-        <f>VLOOKUP(A7,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$L,12,0)</f>
         <v>40.799999999999997</v>
       </c>
       <c r="V7" s="2">
@@ -4596,7 +4596,7 @@
         <v>83.759999999999977</v>
       </c>
       <c r="W7" s="17">
-        <f>VLOOKUP(A7,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$U,21,0)</f>
         <v>12</v>
       </c>
       <c r="X7" s="18">
@@ -4630,7 +4630,7 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="H8" s="17">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M8" s="2">
@@ -4654,15 +4654,15 @@
         <v>0.80000000000000016</v>
       </c>
       <c r="R8" s="2">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$Q,17,0)</f>
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$R,18,0)</f>
         <v>0</v>
       </c>
       <c r="T8" s="2">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$L,12,0)</f>
         <v>7.168000000000001</v>
       </c>
       <c r="V8" s="2">
@@ -4670,7 +4670,7 @@
         <v>91.84</v>
       </c>
       <c r="W8" s="17">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$U,21,0)</f>
         <v>2.2400000000000002</v>
       </c>
       <c r="X8" s="18">
@@ -4704,7 +4704,7 @@
         <v>51.8</v>
       </c>
       <c r="H9" s="17">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M9" s="2">
@@ -4722,15 +4722,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R9" s="2">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$Q,17,0)</f>
         <v>4.7</v>
       </c>
       <c r="S9" s="2">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$R,18,0)</f>
         <v>5.92</v>
       </c>
       <c r="T9" s="2">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$L,12,0)</f>
         <v>0.74</v>
       </c>
       <c r="V9" s="2">
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="17">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$U,21,0)</f>
         <v>3.7</v>
       </c>
       <c r="X9" s="18">
@@ -4773,7 +4773,7 @@
         <v>-2</v>
       </c>
       <c r="H10" s="17">
-        <f>VLOOKUP(A10,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.25</v>
       </c>
       <c r="M10" s="2">
@@ -4797,15 +4797,15 @@
         <v>-0.1111111111111111</v>
       </c>
       <c r="R10" s="2">
-        <f>VLOOKUP(A10,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$Q,17,0)</f>
         <v>5.8</v>
       </c>
       <c r="S10" s="2">
-        <f>VLOOKUP(A10,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$R,18,0)</f>
         <v>9.6</v>
       </c>
       <c r="T10" s="2">
-        <f>VLOOKUP(A10,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$L,12,0)</f>
         <v>7.4</v>
       </c>
       <c r="V10" s="2">
@@ -4813,7 +4813,7 @@
         <v>36.5</v>
       </c>
       <c r="W10" s="17">
-        <f>VLOOKUP(A10,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$U,21,0)</f>
         <v>12</v>
       </c>
       <c r="X10" s="18">
@@ -4843,7 +4843,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="17">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M11" s="2">
@@ -4866,15 +4866,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R11" s="2">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$Q,17,0)</f>
         <v>2.16</v>
       </c>
       <c r="S11" s="2">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$R,18,0)</f>
         <v>7.92</v>
       </c>
       <c r="T11" s="2">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$L,12,0)</f>
         <v>1.08</v>
       </c>
       <c r="V11" s="2">
@@ -4882,7 +4882,7 @@
         <v>50</v>
       </c>
       <c r="W11" s="17">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$U,21,0)</f>
         <v>1.8</v>
       </c>
       <c r="X11" s="18">
@@ -4918,7 +4918,7 @@
         <v>25.9</v>
       </c>
       <c r="H12" s="17">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M12" s="2">
@@ -4942,15 +4942,15 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="R12" s="2">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$Q,17,0)</f>
         <v>16.28</v>
       </c>
       <c r="S12" s="2">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$R,18,0)</f>
         <v>5.18</v>
       </c>
       <c r="T12" s="2">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$L,12,0)</f>
         <v>14.059999999999999</v>
       </c>
       <c r="V12" s="2">
@@ -4958,7 +4958,7 @@
         <v>85.1</v>
       </c>
       <c r="W12" s="17">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$U,21,0)</f>
         <v>3.7</v>
       </c>
       <c r="X12" s="18">
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="34" t="str">
-        <f>VLOOKUP(A13,[3]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A13,[1]TDSheet!$A:$B,2,0)</f>
         <v>Окт</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -4997,7 +4997,7 @@
         <v>246</v>
       </c>
       <c r="H13" s="17">
-        <f>VLOOKUP(A13,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.25</v>
       </c>
       <c r="M13" s="2">
@@ -5021,15 +5021,15 @@
         <v>5.0204081632653059</v>
       </c>
       <c r="R13" s="2">
-        <f>VLOOKUP(A13,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$Q,17,0)</f>
         <v>52.6</v>
       </c>
       <c r="S13" s="2">
-        <f>VLOOKUP(A13,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$R,18,0)</f>
         <v>47.6</v>
       </c>
       <c r="T13" s="2">
-        <f>VLOOKUP(A13,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$L,12,0)</f>
         <v>36</v>
       </c>
       <c r="V13" s="2">
@@ -5037,7 +5037,7 @@
         <v>97.75</v>
       </c>
       <c r="W13" s="17">
-        <f>VLOOKUP(A13,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$U,21,0)</f>
         <v>6</v>
       </c>
       <c r="X13" s="18">
@@ -5071,7 +5071,7 @@
         <v>281</v>
       </c>
       <c r="H14" s="17">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.25</v>
       </c>
       <c r="M14" s="2">
@@ -5095,15 +5095,15 @@
         <v>6.3574660633484159</v>
       </c>
       <c r="R14" s="2">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$Q,17,0)</f>
         <v>66</v>
       </c>
       <c r="S14" s="2">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$R,18,0)</f>
         <v>54.8</v>
       </c>
       <c r="T14" s="2">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$L,12,0)</f>
         <v>35.6</v>
       </c>
       <c r="V14" s="2">
@@ -5111,7 +5111,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="W14" s="17">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$U,21,0)</f>
         <v>12</v>
       </c>
       <c r="X14" s="18">
@@ -5145,7 +5145,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="17">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M15" s="2">
@@ -5169,15 +5169,15 @@
         <v>5</v>
       </c>
       <c r="R15" s="2">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$Q,17,0)</f>
         <v>8.4</v>
       </c>
       <c r="S15" s="2">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$R,18,0)</f>
         <v>3.6</v>
       </c>
       <c r="T15" s="2">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$L,12,0)</f>
         <v>3.6</v>
       </c>
       <c r="V15" s="2">
@@ -5185,7 +5185,7 @@
         <v>76.8</v>
       </c>
       <c r="W15" s="17">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$U,21,0)</f>
         <v>6</v>
       </c>
       <c r="X15" s="18">
@@ -5219,7 +5219,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="17">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.75</v>
       </c>
       <c r="M16" s="2">
@@ -5237,15 +5237,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="2">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$Q,17,0)</f>
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$R,18,0)</f>
         <v>1</v>
       </c>
       <c r="T16" s="2">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
       <c r="V16" s="2">
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="17">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$U,21,0)</f>
         <v>8</v>
       </c>
       <c r="X16" s="18">
@@ -5274,7 +5274,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="34" t="str">
-        <f>VLOOKUP(A17,[3]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A17,[1]TDSheet!$A:$B,2,0)</f>
         <v>Окт</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -5293,7 +5293,7 @@
         <v>79</v>
       </c>
       <c r="H17" s="17">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.9</v>
       </c>
       <c r="M17" s="2">
@@ -5317,15 +5317,15 @@
         <v>7.1818181818181817</v>
       </c>
       <c r="R17" s="2">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$Q,17,0)</f>
         <v>15.6</v>
       </c>
       <c r="S17" s="2">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$R,18,0)</f>
         <v>9</v>
       </c>
       <c r="T17" s="2">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$L,12,0)</f>
         <v>13.6</v>
       </c>
       <c r="V17" s="2">
@@ -5333,7 +5333,7 @@
         <v>57.6</v>
       </c>
       <c r="W17" s="17">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$U,21,0)</f>
         <v>8</v>
       </c>
       <c r="X17" s="18">
@@ -5353,7 +5353,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="34" t="str">
-        <f>VLOOKUP(A18,[3]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A18,[1]TDSheet!$A:$B,2,0)</f>
         <v>Окт</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -5370,7 +5370,7 @@
         <v>395</v>
       </c>
       <c r="H18" s="17">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.9</v>
       </c>
       <c r="M18" s="2">
@@ -5394,15 +5394,15 @@
         <v>10.50531914893617</v>
       </c>
       <c r="R18" s="2">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$Q,17,0)</f>
         <v>74.599999999999994</v>
       </c>
       <c r="S18" s="2">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$R,18,0)</f>
         <v>64.599999999999994</v>
       </c>
       <c r="T18" s="2">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$L,12,0)</f>
         <v>39</v>
       </c>
       <c r="V18" s="2">
@@ -5410,7 +5410,7 @@
         <v>84.420000000000016</v>
       </c>
       <c r="W18" s="17">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$U,21,0)</f>
         <v>8</v>
       </c>
       <c r="X18" s="18">
@@ -5444,7 +5444,7 @@
         <v>294</v>
       </c>
       <c r="H19" s="17">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.43</v>
       </c>
       <c r="M19" s="2">
@@ -5462,15 +5462,15 @@
         <v>19.600000000000001</v>
       </c>
       <c r="R19" s="2">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$Q,17,0)</f>
         <v>20.6</v>
       </c>
       <c r="S19" s="2">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$R,18,0)</f>
         <v>37.6</v>
       </c>
       <c r="T19" s="2">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$L,12,0)</f>
         <v>17.600000000000001</v>
       </c>
       <c r="V19" s="2">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="17">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$U,21,0)</f>
         <v>16</v>
       </c>
       <c r="X19" s="18">
@@ -5515,7 +5515,7 @@
         <v>2420</v>
       </c>
       <c r="H20" s="17">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M20" s="2">
@@ -5533,19 +5533,19 @@
         <v>19.87268343636471</v>
       </c>
       <c r="R20" s="2">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$Q,17,0)</f>
         <v>189</v>
       </c>
       <c r="S20" s="2">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$R,18,0)</f>
         <v>108</v>
       </c>
       <c r="T20" s="2">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$L,12,0)</f>
         <v>236</v>
       </c>
       <c r="U20" s="19" t="str">
-        <f>VLOOKUP(A20,[2]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A20,[3]TDSheet!$A:$S,19,0)</f>
         <v>+600кг для оптовиков</v>
       </c>
       <c r="V20" s="2">
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="17">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$U,21,0)</f>
         <v>5</v>
       </c>
       <c r="X20" s="18">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="34" t="str">
-        <f>VLOOKUP(A21,[3]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A21,[1]TDSheet!$A:$B,2,0)</f>
         <v>Окт</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -5594,7 +5594,7 @@
         <v>227</v>
       </c>
       <c r="H21" s="17">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.9</v>
       </c>
       <c r="M21" s="2">
@@ -5618,15 +5618,15 @@
         <v>4.0681003584229396</v>
       </c>
       <c r="R21" s="2">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$Q,17,0)</f>
         <v>75.8</v>
       </c>
       <c r="S21" s="2">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$R,18,0)</f>
         <v>54.6</v>
       </c>
       <c r="T21" s="2">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$L,12,0)</f>
         <v>48.4</v>
       </c>
       <c r="V21" s="2">
@@ -5634,7 +5634,7 @@
         <v>398.33999999999992</v>
       </c>
       <c r="W21" s="17">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$U,21,0)</f>
         <v>8</v>
       </c>
       <c r="X21" s="18">
@@ -5670,7 +5670,7 @@
         <v>239</v>
       </c>
       <c r="H22" s="17">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.43</v>
       </c>
       <c r="M22" s="2">
@@ -5694,15 +5694,15 @@
         <v>12.193877551020407</v>
       </c>
       <c r="R22" s="2">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$Q,17,0)</f>
         <v>25</v>
       </c>
       <c r="S22" s="2">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$R,18,0)</f>
         <v>24.2</v>
       </c>
       <c r="T22" s="2">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$L,12,0)</f>
         <v>20.6</v>
       </c>
       <c r="V22" s="2">
@@ -5710,7 +5710,7 @@
         <v>6.7940000000000049</v>
       </c>
       <c r="W22" s="17">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$U,21,0)</f>
         <v>16</v>
       </c>
       <c r="X22" s="18">
@@ -5730,7 +5730,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="34" t="str">
-        <f>VLOOKUP(A23,[3]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A23,[1]TDSheet!$A:$B,2,0)</f>
         <v>Окт</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -5747,7 +5747,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="17">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.7</v>
       </c>
       <c r="M23" s="2">
@@ -5771,15 +5771,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="R23" s="2">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$Q,17,0)</f>
         <v>6.4</v>
       </c>
       <c r="S23" s="2">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$R,18,0)</f>
         <v>1.4</v>
       </c>
       <c r="T23" s="2">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$L,12,0)</f>
         <v>3.2</v>
       </c>
       <c r="V23" s="2">
@@ -5787,7 +5787,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="W23" s="17">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$U,21,0)</f>
         <v>8</v>
       </c>
       <c r="X23" s="18">
@@ -5823,7 +5823,7 @@
         <v>32</v>
       </c>
       <c r="H24" s="17">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.9</v>
       </c>
       <c r="M24" s="2">
@@ -5841,15 +5841,15 @@
         <v>80</v>
       </c>
       <c r="R24" s="2">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$Q,17,0)</f>
         <v>0.6</v>
       </c>
       <c r="S24" s="2">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$R,18,0)</f>
         <v>1</v>
       </c>
       <c r="T24" s="2">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
       <c r="V24" s="2">
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="17">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$U,21,0)</f>
         <v>8</v>
       </c>
       <c r="X24" s="18">
@@ -5894,7 +5894,7 @@
         <v>170</v>
       </c>
       <c r="H25" s="17">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M25" s="2">
@@ -5912,15 +5912,15 @@
         <v>13.076923076923077</v>
       </c>
       <c r="R25" s="2">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$Q,17,0)</f>
         <v>13</v>
       </c>
       <c r="S25" s="2">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$R,18,0)</f>
         <v>24</v>
       </c>
       <c r="T25" s="2">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$L,12,0)</f>
         <v>17</v>
       </c>
       <c r="V25" s="2">
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="17">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$U,21,0)</f>
         <v>5</v>
       </c>
       <c r="X25" s="18">
@@ -5961,7 +5961,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="17">
-        <f>VLOOKUP(A26,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M26" s="2">
@@ -5979,15 +5979,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="2">
-        <f>VLOOKUP(A26,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$Q,17,0)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <f>VLOOKUP(A26,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$R,18,0)</f>
         <v>1</v>
       </c>
       <c r="T26" s="2">
-        <f>VLOOKUP(A26,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
       <c r="V26" s="2">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="17">
-        <f>VLOOKUP(A26,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$U,21,0)</f>
         <v>5</v>
       </c>
       <c r="X26" s="18">
@@ -6028,7 +6028,7 @@
         <v>5.5</v>
       </c>
       <c r="H27" s="17">
-        <f>VLOOKUP(A27,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M27" s="2">
@@ -6046,15 +6046,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="2">
-        <f>VLOOKUP(A27,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$Q,17,0)</f>
         <v>19.7</v>
       </c>
       <c r="S27" s="2">
-        <f>VLOOKUP(A27,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$R,18,0)</f>
         <v>16.5</v>
       </c>
       <c r="T27" s="2">
-        <f>VLOOKUP(A27,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$L,12,0)</f>
         <v>22</v>
       </c>
       <c r="V27" s="2">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="17">
-        <f>VLOOKUP(A27,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$U,21,0)</f>
         <v>5.5</v>
       </c>
       <c r="X27" s="18">
@@ -6095,7 +6095,7 @@
         <v>48</v>
       </c>
       <c r="H28" s="17">
-        <f>VLOOKUP(A28,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.33</v>
       </c>
       <c r="M28" s="2">
@@ -6113,15 +6113,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="2">
-        <f>VLOOKUP(A28,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$Q,17,0)</f>
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <f>VLOOKUP(A28,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$R,18,0)</f>
         <v>0</v>
       </c>
       <c r="T28" s="2">
-        <f>VLOOKUP(A28,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
       <c r="V28" s="2">
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="17">
-        <f>VLOOKUP(A28,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$U,21,0)</f>
         <v>6</v>
       </c>
       <c r="X28" s="18">
@@ -6164,7 +6164,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="17">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M29" s="2">
@@ -6182,15 +6182,15 @@
         <v>15</v>
       </c>
       <c r="R29" s="2">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$Q,17,0)</f>
         <v>0.6</v>
       </c>
       <c r="S29" s="2">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$R,18,0)</f>
         <v>1.2</v>
       </c>
       <c r="T29" s="2">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
       <c r="V29" s="2">
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="17">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$U,21,0)</f>
         <v>3</v>
       </c>
       <c r="X29" s="18">
@@ -6233,7 +6233,7 @@
         <v>94</v>
       </c>
       <c r="H30" s="17">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.25</v>
       </c>
       <c r="M30" s="2">
@@ -6257,15 +6257,15 @@
         <v>2.4607329842931933</v>
       </c>
       <c r="R30" s="2">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$Q,17,0)</f>
         <v>30.2</v>
       </c>
       <c r="S30" s="2">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$R,18,0)</f>
         <v>35</v>
       </c>
       <c r="T30" s="2">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$L,12,0)</f>
         <v>33.6</v>
       </c>
       <c r="V30" s="2">
@@ -6273,7 +6273,7 @@
         <v>72</v>
       </c>
       <c r="W30" s="17">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$U,21,0)</f>
         <v>12</v>
       </c>
       <c r="X30" s="18">
@@ -6303,7 +6303,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="17">
-        <f>VLOOKUP(A31,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$G,7,0)</f>
         <v>0</v>
       </c>
       <c r="M31" s="2">
@@ -6321,15 +6321,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="2">
-        <f>VLOOKUP(A31,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$Q,17,0)</f>
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <f>VLOOKUP(A31,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$R,18,0)</f>
         <v>0</v>
       </c>
       <c r="T31" s="2">
-        <f>VLOOKUP(A31,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
       <c r="V31" s="2">
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="17">
-        <f>VLOOKUP(A31,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
       <c r="X31" s="18">
@@ -6369,7 +6369,7 @@
         <v>23.4</v>
       </c>
       <c r="H32" s="17">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M32" s="2">
@@ -6387,15 +6387,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="2">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$Q,17,0)</f>
         <v>0.36</v>
       </c>
       <c r="S32" s="2">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$R,18,0)</f>
         <v>0</v>
       </c>
       <c r="T32" s="2">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
       <c r="V32" s="2">
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="17">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$U,21,0)</f>
         <v>1.8</v>
       </c>
       <c r="X32" s="18">
@@ -6438,7 +6438,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="17">
-        <f>VLOOKUP(A33,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.2</v>
       </c>
       <c r="M33" s="2">
@@ -6462,15 +6462,15 @@
         <v>2.8571428571428572</v>
       </c>
       <c r="R33" s="2">
-        <f>VLOOKUP(A33,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$Q,17,0)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="S33" s="2">
-        <f>VLOOKUP(A33,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$R,18,0)</f>
         <v>2.4</v>
       </c>
       <c r="T33" s="2">
-        <f>VLOOKUP(A33,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$L,12,0)</f>
         <v>1.6</v>
       </c>
       <c r="V33" s="2">
@@ -6478,7 +6478,7 @@
         <v>6.8400000000000007</v>
       </c>
       <c r="W33" s="17">
-        <f>VLOOKUP(A33,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$U,21,0)</f>
         <v>6</v>
       </c>
       <c r="X33" s="18">
@@ -6512,7 +6512,7 @@
         <v>21</v>
       </c>
       <c r="H34" s="17">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.2</v>
       </c>
       <c r="M34" s="2">
@@ -6536,15 +6536,15 @@
         <v>5</v>
       </c>
       <c r="R34" s="2">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$Q,17,0)</f>
         <v>5.2</v>
       </c>
       <c r="S34" s="2">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$R,18,0)</f>
         <v>2.4</v>
       </c>
       <c r="T34" s="2">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$L,12,0)</f>
         <v>2.6</v>
       </c>
       <c r="V34" s="2">
@@ -6552,7 +6552,7 @@
         <v>6.7200000000000006</v>
       </c>
       <c r="W34" s="17">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$U,21,0)</f>
         <v>6</v>
       </c>
       <c r="X34" s="18">
@@ -6572,7 +6572,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="34" t="str">
-        <f>VLOOKUP(A35,[3]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A35,[1]TDSheet!$A:$B,2,0)</f>
         <v>Окт</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -6589,7 +6589,7 @@
         <v>81</v>
       </c>
       <c r="H35" s="17">
-        <f>VLOOKUP(A35,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A35,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.25</v>
       </c>
       <c r="M35" s="2">
@@ -6613,15 +6613,15 @@
         <v>1.9852941176470589</v>
       </c>
       <c r="R35" s="2">
-        <f>VLOOKUP(A35,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A35,[2]TDSheet!$A:$Q,17,0)</f>
         <v>41.8</v>
       </c>
       <c r="S35" s="2">
-        <f>VLOOKUP(A35,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A35,[2]TDSheet!$A:$R,18,0)</f>
         <v>34.200000000000003</v>
       </c>
       <c r="T35" s="2">
-        <f>VLOOKUP(A35,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A35,[2]TDSheet!$A:$L,12,0)</f>
         <v>31.8</v>
       </c>
       <c r="V35" s="2">
@@ -6629,7 +6629,7 @@
         <v>81.75</v>
       </c>
       <c r="W35" s="17">
-        <f>VLOOKUP(A35,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A35,[2]TDSheet!$A:$U,21,0)</f>
         <v>12</v>
       </c>
       <c r="X35" s="18">
@@ -6649,7 +6649,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="34" t="str">
-        <f>VLOOKUP(A36,[3]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A36,[1]TDSheet!$A:$B,2,0)</f>
         <v>Окт</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -6666,7 +6666,7 @@
         <v>56</v>
       </c>
       <c r="H36" s="17">
-        <f>VLOOKUP(A36,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A36,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.25</v>
       </c>
       <c r="M36" s="2">
@@ -6690,15 +6690,15 @@
         <v>1.8666666666666667</v>
       </c>
       <c r="R36" s="2">
-        <f>VLOOKUP(A36,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A36,[2]TDSheet!$A:$Q,17,0)</f>
         <v>40.6</v>
       </c>
       <c r="S36" s="2">
-        <f>VLOOKUP(A36,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A36,[2]TDSheet!$A:$R,18,0)</f>
         <v>34</v>
       </c>
       <c r="T36" s="2">
-        <f>VLOOKUP(A36,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A36,[2]TDSheet!$A:$L,12,0)</f>
         <v>34.4</v>
       </c>
       <c r="V36" s="2">
@@ -6706,7 +6706,7 @@
         <v>61</v>
       </c>
       <c r="W36" s="17">
-        <f>VLOOKUP(A36,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A36,[2]TDSheet!$A:$U,21,0)</f>
         <v>12</v>
       </c>
       <c r="X36" s="18">
@@ -6736,7 +6736,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="17">
-        <f>VLOOKUP(A37,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A37,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M37" s="2">
@@ -6756,15 +6756,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="2">
-        <f>VLOOKUP(A37,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A37,[2]TDSheet!$A:$Q,17,0)</f>
         <v>2.7</v>
       </c>
       <c r="S37" s="2">
-        <f>VLOOKUP(A37,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A37,[2]TDSheet!$A:$R,18,0)</f>
         <v>9.18</v>
       </c>
       <c r="T37" s="2">
-        <f>VLOOKUP(A37,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A37,[2]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
       <c r="V37" s="2">
@@ -6772,7 +6772,7 @@
         <v>100</v>
       </c>
       <c r="W37" s="17">
-        <f>VLOOKUP(A37,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A37,[2]TDSheet!$A:$U,21,0)</f>
         <v>2.7</v>
       </c>
       <c r="X37" s="18">
@@ -6803,7 +6803,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="17">
-        <f>VLOOKUP(A38,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A38,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M38" s="2">
@@ -6826,15 +6826,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="2">
-        <f>VLOOKUP(A38,[1]TDSheet!$A:$Q,17,0)</f>
+        <f>VLOOKUP(A38,[2]TDSheet!$A:$Q,17,0)</f>
         <v>2</v>
       </c>
       <c r="S38" s="2">
-        <f>VLOOKUP(A38,[1]TDSheet!$A:$R,18,0)</f>
+        <f>VLOOKUP(A38,[2]TDSheet!$A:$R,18,0)</f>
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <f>VLOOKUP(A38,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A38,[2]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
       <c r="V38" s="2">
@@ -6842,7 +6842,7 @@
         <v>300</v>
       </c>
       <c r="W38" s="17">
-        <f>VLOOKUP(A38,[1]TDSheet!$A:$U,21,0)</f>
+        <f>VLOOKUP(A38,[2]TDSheet!$A:$U,21,0)</f>
         <v>5</v>
       </c>
       <c r="X38" s="18">
